--- a/rustat/db/pars/NAS/CHI.xlsx
+++ b/rustat/db/pars/NAS/CHI.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\GitHub\navizv.github.io\rustat\db\pars\NAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="22980" windowHeight="9528" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="204">
   <si>
     <t>Российская Федерация</t>
   </si>
@@ -653,12 +658,27 @@
   <si>
     <t xml:space="preserve">Хабаровский край </t>
   </si>
+  <si>
+    <r>
+      <t>Российская Федерация</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, млн. т</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +725,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -714,7 +749,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -819,11 +854,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -899,11 +947,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -918,6 +1019,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -964,7 +1073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,9 +1105,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1030,6 +1140,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1205,20 +1316,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:N93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="8"/>
     <col min="4" max="4" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1254,7 +1365,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.2">
+    <row r="2" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1405,7 @@
         <v>143347</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="39.6">
+    <row r="3" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1414,7 @@
         <v>Центральный федеральный округ</v>
       </c>
       <c r="C3" s="5" t="b">
-        <f>A3=B3</f>
+        <f t="shared" ref="C3:C34" si="0">A3=B3</f>
         <v>1</v>
       </c>
       <c r="D3" s="5" t="str">
@@ -1341,7 +1452,7 @@
         <v>38679</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="19.2">
+    <row r="4" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -1350,7 +1461,7 @@
         <v>Белгородская область</v>
       </c>
       <c r="C4" s="5" t="b">
-        <f>A4=B4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4" s="5" t="str">
@@ -1388,7 +1499,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.399999999999999">
+    <row r="5" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1508,7 @@
         <v>Брянская область</v>
       </c>
       <c r="C5" s="5" t="b">
-        <f>A5=B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D5" s="5" t="str">
@@ -1435,7 +1546,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20.399999999999999">
+    <row r="6" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +1555,7 @@
         <v>Владимирская область</v>
       </c>
       <c r="C6" s="5" t="b">
-        <f>A6=B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6" s="5" t="str">
@@ -1482,7 +1593,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.399999999999999">
+    <row r="7" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1602,7 @@
         <v>Воронежская область</v>
       </c>
       <c r="C7" s="5" t="b">
-        <f>A7=B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="5" t="str">
@@ -1529,7 +1640,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="20.399999999999999">
+    <row r="8" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1649,7 @@
         <v>Ивановская область</v>
       </c>
       <c r="C8" s="5" t="b">
-        <f>A8=B8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8" s="5" t="str">
@@ -1576,7 +1687,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="20.399999999999999">
+    <row r="9" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1696,7 @@
         <v>Калужская область</v>
       </c>
       <c r="C9" s="5" t="b">
-        <f>A9=B9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="5" t="str">
@@ -1623,7 +1734,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="20.399999999999999">
+    <row r="10" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1743,7 @@
         <v>Костромская область</v>
       </c>
       <c r="C10" s="5" t="b">
-        <f>A10=B10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="5" t="str">
@@ -1670,7 +1781,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="20.399999999999999">
+    <row r="11" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
@@ -1679,7 +1790,7 @@
         <v>Курская область</v>
       </c>
       <c r="C11" s="5" t="b">
-        <f>A11=B11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" s="5" t="str">
@@ -1717,7 +1828,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="20.399999999999999">
+    <row r="12" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1837,7 @@
         <v>Липецкая область</v>
       </c>
       <c r="C12" s="5" t="b">
-        <f>A12=B12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D12" s="5" t="str">
@@ -1764,7 +1875,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20.399999999999999">
+    <row r="13" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1773,7 +1884,7 @@
         <v>Московская область</v>
       </c>
       <c r="C13" s="5" t="b">
-        <f>A13=B13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D13" s="5" t="str">
@@ -1811,7 +1922,7 @@
         <v>7048</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="20.399999999999999">
+    <row r="14" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +1931,7 @@
         <v>Орловская область</v>
       </c>
       <c r="C14" s="5" t="b">
-        <f>A14=B14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14" s="5" t="str">
@@ -1858,7 +1969,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="20.399999999999999">
+    <row r="15" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
@@ -1867,7 +1978,7 @@
         <v>Рязанская область</v>
       </c>
       <c r="C15" s="5" t="b">
-        <f>A15=B15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15" s="5" t="str">
@@ -1905,7 +2016,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="20.399999999999999">
+    <row r="16" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +2025,7 @@
         <v>Смоленская область</v>
       </c>
       <c r="C16" s="5" t="b">
-        <f>A16=B16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D16" s="5" t="str">
@@ -1952,7 +2063,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="20.399999999999999">
+    <row r="17" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
@@ -1961,7 +2072,7 @@
         <v>Тамбовская область</v>
       </c>
       <c r="C17" s="5" t="b">
-        <f>A17=B17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" s="5" t="str">
@@ -1999,7 +2110,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20.399999999999999">
+    <row r="18" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -2008,7 +2119,7 @@
         <v>Тверская область</v>
       </c>
       <c r="C18" s="5" t="b">
-        <f>A18=B18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="5" t="str">
@@ -2046,7 +2157,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20.399999999999999">
+    <row r="19" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2166,7 @@
         <v>Тульская область</v>
       </c>
       <c r="C19" s="5" t="b">
-        <f>A19=B19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D19" s="5" t="str">
@@ -2093,7 +2204,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20.399999999999999">
+    <row r="20" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
@@ -2102,7 +2213,7 @@
         <v>Ярославская область</v>
       </c>
       <c r="C20" s="5" t="b">
-        <f>A20=B20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D20" s="5" t="str">
@@ -2140,7 +2251,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
@@ -2149,7 +2260,7 @@
         <v>г. Москва</v>
       </c>
       <c r="C21" s="5" t="b">
-        <f>A21=B21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D21" s="5" t="str">
@@ -2187,7 +2298,7 @@
         <v>11980</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="39.6">
+    <row r="22" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>175</v>
       </c>
@@ -2196,7 +2307,7 @@
         <v>Северо-Западный федеральный округ</v>
       </c>
       <c r="C22" s="5" t="b">
-        <f>A22=B22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D22" s="5" t="str">
@@ -2234,7 +2345,7 @@
         <v>13717</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20.399999999999999">
+    <row r="23" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>20</v>
       </c>
@@ -2243,7 +2354,7 @@
         <v>Республика Карелия</v>
       </c>
       <c r="C23" s="5" t="b">
-        <f>A23=B23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D23" s="5" t="str">
@@ -2281,7 +2392,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20.399999999999999">
+    <row r="24" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
@@ -2290,7 +2401,7 @@
         <v>Республика Коми</v>
       </c>
       <c r="C24" s="5" t="b">
-        <f>A24=B24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D24" s="5" t="str">
@@ -2328,7 +2439,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20.399999999999999">
+    <row r="25" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
@@ -2337,7 +2448,7 @@
         <v>Архангельская область</v>
       </c>
       <c r="C25" s="5" t="b">
-        <f>A25=B25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D25" s="5" t="str">
@@ -2375,7 +2486,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30">
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>164</v>
       </c>
@@ -2384,7 +2495,7 @@
         <v>Ненецкий автономный округ</v>
       </c>
       <c r="C26" s="5" t="b">
-        <f>A26=B26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D26" s="5" t="str">
@@ -2422,7 +2533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20.399999999999999">
+    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>23</v>
       </c>
@@ -2431,7 +2542,7 @@
         <v>Вологодская область</v>
       </c>
       <c r="C27" s="5" t="b">
-        <f>A27=B27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D27" s="5" t="str">
@@ -2469,7 +2580,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30">
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>24</v>
       </c>
@@ -2478,7 +2589,7 @@
         <v>Калининградская область</v>
       </c>
       <c r="C28" s="5" t="b">
-        <f>A28=B28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D28" s="5" t="str">
@@ -2516,7 +2627,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="20.399999999999999">
+    <row r="29" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
@@ -2525,7 +2636,7 @@
         <v>Ленинградская область</v>
       </c>
       <c r="C29" s="5" t="b">
-        <f>A29=B29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D29" s="5" t="str">
@@ -2563,7 +2674,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="20.399999999999999">
+    <row r="30" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>26</v>
       </c>
@@ -2572,7 +2683,7 @@
         <v>Мурманская область</v>
       </c>
       <c r="C30" s="5" t="b">
-        <f>A30=B30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D30" s="5" t="str">
@@ -2610,7 +2721,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="20.399999999999999">
+    <row r="31" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
@@ -2619,7 +2730,7 @@
         <v>Новгородская область</v>
       </c>
       <c r="C31" s="5" t="b">
-        <f>A31=B31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D31" s="5" t="str">
@@ -2657,7 +2768,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20.399999999999999">
+    <row r="32" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
@@ -2666,7 +2777,7 @@
         <v>Псковская область</v>
       </c>
       <c r="C32" s="5" t="b">
-        <f>A32=B32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D32" s="5" t="str">
@@ -2704,7 +2815,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="20.399999999999999">
+    <row r="33" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>29</v>
       </c>
@@ -2713,7 +2824,7 @@
         <v>г. Санкт-Петербург</v>
       </c>
       <c r="C33" s="5" t="b">
-        <f>A33=B33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D33" s="5" t="str">
@@ -2751,7 +2862,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30">
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>173</v>
       </c>
@@ -2760,7 +2871,7 @@
         <v>Южный федеральный округ</v>
       </c>
       <c r="C34" s="5" t="b">
-        <f>A34=B34</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D34" s="5" t="str">
@@ -2798,7 +2909,7 @@
         <v>13910</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="20.399999999999999">
+    <row r="35" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>30</v>
       </c>
@@ -2807,7 +2918,7 @@
         <v>Республика Адыгея</v>
       </c>
       <c r="C35" s="5" t="b">
-        <f>A35=B35</f>
+        <f t="shared" ref="C35:C66" si="1">A35=B35</f>
         <v>1</v>
       </c>
       <c r="D35" s="5" t="str">
@@ -2845,7 +2956,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20.399999999999999">
+    <row r="36" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>34</v>
       </c>
@@ -2854,7 +2965,7 @@
         <v>Республика Калмыкия</v>
       </c>
       <c r="C36" s="5" t="b">
-        <f>A36=B36</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D36" s="5" t="str">
@@ -2892,7 +3003,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="20.399999999999999">
+    <row r="37" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>38</v>
       </c>
@@ -2901,7 +3012,7 @@
         <v>Краснодарский край</v>
       </c>
       <c r="C37" s="5" t="b">
-        <f>A37=B37</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D37" s="5" t="str">
@@ -2939,7 +3050,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20.399999999999999">
+    <row r="38" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>40</v>
       </c>
@@ -2948,7 +3059,7 @@
         <v>Астраханская область</v>
       </c>
       <c r="C38" s="5" t="b">
-        <f>A38=B38</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D38" s="5" t="str">
@@ -2986,7 +3097,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20.399999999999999">
+    <row r="39" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>41</v>
       </c>
@@ -2995,7 +3106,7 @@
         <v>Волгоградская область</v>
       </c>
       <c r="C39" s="5" t="b">
-        <f>A39=B39</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D39" s="5" t="str">
@@ -3033,7 +3144,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="19.2">
+    <row r="40" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>42</v>
       </c>
@@ -3042,7 +3153,7 @@
         <v>Ростовская область</v>
       </c>
       <c r="C40" s="5" t="b">
-        <f>A40=B40</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D40" s="5" t="str">
@@ -3080,7 +3191,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="38.4">
+    <row r="41" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>182</v>
       </c>
@@ -3089,7 +3200,7 @@
         <v>Северо-Кавказский федеральный округ</v>
       </c>
       <c r="C41" s="5" t="b">
-        <f>A41=B41</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D41" s="5" t="str">
@@ -3127,7 +3238,7 @@
         <v>9541</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="20.399999999999999">
+    <row r="42" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>31</v>
       </c>
@@ -3136,7 +3247,7 @@
         <v>Республика Дагестан</v>
       </c>
       <c r="C42" s="5" t="b">
-        <f>A42=B42</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D42" s="5" t="str">
@@ -3174,7 +3285,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="20.399999999999999">
+    <row r="43" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>32</v>
       </c>
@@ -3183,7 +3294,7 @@
         <v>Республика Ингушетия</v>
       </c>
       <c r="C43" s="5" t="b">
-        <f>A43=B43</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D43" s="5" t="str">
@@ -3221,7 +3332,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="30">
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>33</v>
       </c>
@@ -3230,7 +3341,7 @@
         <v>Кабардино-Балкарская Республика</v>
       </c>
       <c r="C44" s="5" t="b">
-        <f>A44=B44</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D44" s="5" t="str">
@@ -3268,7 +3379,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="30">
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>35</v>
       </c>
@@ -3277,7 +3388,7 @@
         <v>Карачаево-Черкесская Республика</v>
       </c>
       <c r="C45" s="5" t="b">
-        <f>A45=B45</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D45" s="5" t="str">
@@ -3315,7 +3426,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="39.6">
+    <row r="46" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>36</v>
       </c>
@@ -3324,7 +3435,7 @@
         <v>Республика Северная Осетия - Алания</v>
       </c>
       <c r="C46" s="5" t="b">
-        <f>A46=B46</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D46" s="5" t="str">
@@ -3362,7 +3473,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="20.399999999999999">
+    <row r="47" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>37</v>
       </c>
@@ -3371,7 +3482,7 @@
         <v>Чеченская Республика</v>
       </c>
       <c r="C47" s="5" t="b">
-        <f>A47=B47</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D47" s="5" t="str">
@@ -3409,7 +3520,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="21" thickBot="1">
+    <row r="48" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>39</v>
       </c>
@@ -3418,7 +3529,7 @@
         <v>Ставропольский край</v>
       </c>
       <c r="C48" s="5" t="b">
-        <f>A48=B48</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D48" s="5" t="str">
@@ -3456,7 +3567,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="38.4">
+    <row r="49" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>43</v>
       </c>
@@ -3465,7 +3576,7 @@
         <v>Приволжский федеральный округ</v>
       </c>
       <c r="C49" s="5" t="b">
-        <f>A49=B49</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D49" s="5" t="str">
@@ -3503,7 +3614,7 @@
         <v>29772</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="30">
+    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>44</v>
       </c>
@@ -3512,7 +3623,7 @@
         <v>Республика Башкортостан</v>
       </c>
       <c r="C50" s="5" t="b">
-        <f>A50=B50</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D50" s="5" t="str">
@@ -3550,7 +3661,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="20.399999999999999">
+    <row r="51" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>45</v>
       </c>
@@ -3559,7 +3670,7 @@
         <v>Республика Марий Эл</v>
       </c>
       <c r="C51" s="5" t="b">
-        <f>A51=B51</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D51" s="5" t="str">
@@ -3597,7 +3708,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="20.399999999999999">
+    <row r="52" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>46</v>
       </c>
@@ -3606,7 +3717,7 @@
         <v>Республика Мордовия</v>
       </c>
       <c r="C52" s="5" t="b">
-        <f>A52=B52</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D52" s="5" t="str">
@@ -3644,7 +3755,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="20.399999999999999">
+    <row r="53" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>47</v>
       </c>
@@ -3653,7 +3764,7 @@
         <v>Республика Татарстан</v>
       </c>
       <c r="C53" s="5" t="b">
-        <f>A53=B53</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D53" s="5" t="str">
@@ -3691,7 +3802,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="20.399999999999999">
+    <row r="54" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>48</v>
       </c>
@@ -3700,7 +3811,7 @@
         <v>Удмуртская Республика</v>
       </c>
       <c r="C54" s="5" t="b">
-        <f>A54=B54</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D54" s="5" t="str">
@@ -3738,7 +3849,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="20.399999999999999">
+    <row r="55" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>49</v>
       </c>
@@ -3747,7 +3858,7 @@
         <v>Чувашская Республика</v>
       </c>
       <c r="C55" s="5" t="b">
-        <f>A55=B55</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D55" s="5" t="str">
@@ -3785,7 +3896,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="20.399999999999999">
+    <row r="56" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>50</v>
       </c>
@@ -3794,7 +3905,7 @@
         <v>Пермский край</v>
       </c>
       <c r="C56" s="5" t="b">
-        <f>A56=B56</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D56" s="5" t="str">
@@ -3832,7 +3943,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="20.399999999999999">
+    <row r="57" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>51</v>
       </c>
@@ -3841,7 +3952,7 @@
         <v>Кировская область</v>
       </c>
       <c r="C57" s="5" t="b">
-        <f>A57=B57</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D57" s="5" t="str">
@@ -3879,7 +3990,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="20.399999999999999">
+    <row r="58" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>52</v>
       </c>
@@ -3888,7 +3999,7 @@
         <v>Нижегородская область</v>
       </c>
       <c r="C58" s="5" t="b">
-        <f>A58=B58</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D58" s="5" t="str">
@@ -3926,7 +4037,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="20.399999999999999">
+    <row r="59" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>53</v>
       </c>
@@ -3935,7 +4046,7 @@
         <v>Оренбургская область</v>
       </c>
       <c r="C59" s="5" t="b">
-        <f>A59=B59</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D59" s="5" t="str">
@@ -3973,7 +4084,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="20.399999999999999">
+    <row r="60" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>54</v>
       </c>
@@ -3982,7 +4093,7 @@
         <v>Пензенская область</v>
       </c>
       <c r="C60" s="5" t="b">
-        <f>A60=B60</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D60" s="5" t="str">
@@ -4020,7 +4131,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="20.399999999999999">
+    <row r="61" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>55</v>
       </c>
@@ -4029,7 +4140,7 @@
         <v>Самарская область</v>
       </c>
       <c r="C61" s="5" t="b">
-        <f>A61=B61</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D61" s="5" t="str">
@@ -4067,7 +4178,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="20.399999999999999">
+    <row r="62" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>56</v>
       </c>
@@ -4076,7 +4187,7 @@
         <v>Саратовская область</v>
       </c>
       <c r="C62" s="5" t="b">
-        <f>A62=B62</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D62" s="5" t="str">
@@ -4114,7 +4225,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="20.399999999999999">
+    <row r="63" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>57</v>
       </c>
@@ -4123,7 +4234,7 @@
         <v>Ульяновская область</v>
       </c>
       <c r="C63" s="5" t="b">
-        <f>A63=B63</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D63" s="5" t="str">
@@ -4161,7 +4272,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="30">
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>58</v>
       </c>
@@ -4170,7 +4281,7 @@
         <v>Уральский федеральный округ</v>
       </c>
       <c r="C64" s="5" t="b">
-        <f>A64=B64</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D64" s="5" t="str">
@@ -4208,7 +4319,7 @@
         <v>12198</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="20.399999999999999">
+    <row r="65" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>59</v>
       </c>
@@ -4217,7 +4328,7 @@
         <v>Курганская область</v>
       </c>
       <c r="C65" s="5" t="b">
-        <f>A65=B65</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D65" s="5" t="str">
@@ -4255,7 +4366,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="20.399999999999999">
+    <row r="66" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>60</v>
       </c>
@@ -4264,7 +4375,7 @@
         <v>Свердловская область</v>
       </c>
       <c r="C66" s="5" t="b">
-        <f>A66=B66</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D66" s="5" t="str">
@@ -4302,7 +4413,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="20.399999999999999">
+    <row r="67" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>61</v>
       </c>
@@ -4311,7 +4422,7 @@
         <v>Тюменская область</v>
       </c>
       <c r="C67" s="5" t="b">
-        <f>A67=B67</f>
+        <f t="shared" ref="C67:C98" si="2">A67=B67</f>
         <v>1</v>
       </c>
       <c r="D67" s="5" t="str">
@@ -4349,7 +4460,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="58.8">
+    <row r="68" spans="1:14" ht="58.8" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>62</v>
       </c>
@@ -4358,7 +4469,7 @@
         <v>Ханты-Мансийский автономный округ - Югра</v>
       </c>
       <c r="C68" s="5" t="b">
-        <f>A68=B68</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D68" s="5" t="str">
@@ -4396,7 +4507,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="39.6">
+    <row r="69" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>63</v>
       </c>
@@ -4405,7 +4516,7 @@
         <v>Ямало-Ненецкий автономный округ</v>
       </c>
       <c r="C69" s="5" t="b">
-        <f>A69=B69</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D69" s="5" t="str">
@@ -4443,7 +4554,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="20.399999999999999">
+    <row r="70" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>64</v>
       </c>
@@ -4452,7 +4563,7 @@
         <v>Челябинская область</v>
       </c>
       <c r="C70" s="5" t="b">
-        <f>A70=B70</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D70" s="5" t="str">
@@ -4490,7 +4601,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="28.8">
+    <row r="71" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>65</v>
       </c>
@@ -4499,7 +4610,7 @@
         <v>Сибирский федеральный округ</v>
       </c>
       <c r="C71" s="5" t="b">
-        <f>A71=B71</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D71" s="5" t="str">
@@ -4537,7 +4648,7 @@
         <v>19278</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="20.399999999999999">
+    <row r="72" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>66</v>
       </c>
@@ -4546,7 +4657,7 @@
         <v>Республика Алтай</v>
       </c>
       <c r="C72" s="5" t="b">
-        <f>A72=B72</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D72" s="5" t="str">
@@ -4584,7 +4695,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="20.399999999999999">
+    <row r="73" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>67</v>
       </c>
@@ -4593,7 +4704,7 @@
         <v>Республика Бурятия</v>
       </c>
       <c r="C73" s="5" t="b">
-        <f>A73=B73</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D73" s="5" t="str">
@@ -4631,7 +4742,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="20.399999999999999">
+    <row r="74" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>68</v>
       </c>
@@ -4640,7 +4751,7 @@
         <v>Республика Тыва</v>
       </c>
       <c r="C74" s="5" t="b">
-        <f>A74=B74</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D74" s="5" t="str">
@@ -4678,7 +4789,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="20.399999999999999">
+    <row r="75" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>69</v>
       </c>
@@ -4687,7 +4798,7 @@
         <v>Республика Хакасия</v>
       </c>
       <c r="C75" s="5" t="b">
-        <f>A75=B75</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D75" s="5" t="str">
@@ -4725,7 +4836,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="20.399999999999999">
+    <row r="76" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>70</v>
       </c>
@@ -4734,7 +4845,7 @@
         <v>Алтайский край</v>
       </c>
       <c r="C76" s="5" t="b">
-        <f>A76=B76</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D76" s="5" t="str">
@@ -4772,7 +4883,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="20.399999999999999">
+    <row r="77" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>71</v>
       </c>
@@ -4781,7 +4892,7 @@
         <v>Забайкальский край</v>
       </c>
       <c r="C77" s="5" t="b">
-        <f>A77=B77</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D77" s="5" t="str">
@@ -4819,7 +4930,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="20.399999999999999">
+    <row r="78" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>72</v>
       </c>
@@ -4828,7 +4939,7 @@
         <v>Красноярский край</v>
       </c>
       <c r="C78" s="5" t="b">
-        <f>A78=B78</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D78" s="5" t="str">
@@ -4866,7 +4977,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="20.399999999999999">
+    <row r="79" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>73</v>
       </c>
@@ -4875,7 +4986,7 @@
         <v>Иркутская область</v>
       </c>
       <c r="C79" s="5" t="b">
-        <f>A79=B79</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D79" s="5" t="str">
@@ -4913,7 +5024,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="20.399999999999999">
+    <row r="80" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
         <v>74</v>
       </c>
@@ -4922,7 +5033,7 @@
         <v>Кемеровская область</v>
       </c>
       <c r="C80" s="5" t="b">
-        <f>A80=B80</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D80" s="5" t="str">
@@ -4960,7 +5071,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="20.399999999999999">
+    <row r="81" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>75</v>
       </c>
@@ -4969,7 +5080,7 @@
         <v>Новосибирская область</v>
       </c>
       <c r="C81" s="5" t="b">
-        <f>A81=B81</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D81" s="5" t="str">
@@ -5007,7 +5118,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="20.399999999999999">
+    <row r="82" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>76</v>
       </c>
@@ -5016,7 +5127,7 @@
         <v>Омская область</v>
       </c>
       <c r="C82" s="5" t="b">
-        <f>A82=B82</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D82" s="5" t="str">
@@ -5054,7 +5165,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="20.399999999999999">
+    <row r="83" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>77</v>
       </c>
@@ -5063,7 +5174,7 @@
         <v>Томская область</v>
       </c>
       <c r="C83" s="5" t="b">
-        <f>A83=B83</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D83" s="5" t="str">
@@ -5101,7 +5212,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="38.4">
+    <row r="84" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>177</v>
       </c>
@@ -5110,7 +5221,7 @@
         <v>Дальневосточный федеральный округ</v>
       </c>
       <c r="C84" s="5" t="b">
-        <f>A84=B84</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D84" s="5" t="str">
@@ -5148,7 +5259,7 @@
         <v>6252</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="30">
+    <row r="85" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
         <v>78</v>
       </c>
@@ -5157,7 +5268,7 @@
         <v>Республика Саха (Якутия)</v>
       </c>
       <c r="C85" s="5" t="b">
-        <f>A85=B85</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D85" s="5" t="str">
@@ -5195,7 +5306,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="20.399999999999999">
+    <row r="86" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>79</v>
       </c>
@@ -5204,7 +5315,7 @@
         <v>Камчатский край</v>
       </c>
       <c r="C86" s="5" t="b">
-        <f>A86=B86</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D86" s="5" t="str">
@@ -5242,7 +5353,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="20.399999999999999">
+    <row r="87" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>80</v>
       </c>
@@ -5251,7 +5362,7 @@
         <v>Приморский край</v>
       </c>
       <c r="C87" s="5" t="b">
-        <f>A87=B87</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D87" s="5" t="str">
@@ -5289,7 +5400,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="20.399999999999999">
+    <row r="88" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>81</v>
       </c>
@@ -5298,7 +5409,7 @@
         <v>Хабаровский край</v>
       </c>
       <c r="C88" s="5" t="b">
-        <f>A88=B88</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D88" s="5" t="str">
@@ -5336,7 +5447,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="20.399999999999999">
+    <row r="89" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
         <v>82</v>
       </c>
@@ -5345,7 +5456,7 @@
         <v>Амурская область</v>
       </c>
       <c r="C89" s="5" t="b">
-        <f>A89=B89</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D89" s="5" t="str">
@@ -5383,7 +5494,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="20.399999999999999">
+    <row r="90" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>83</v>
       </c>
@@ -5392,7 +5503,7 @@
         <v>Магаданская область</v>
       </c>
       <c r="C90" s="5" t="b">
-        <f>A90=B90</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D90" s="5" t="str">
@@ -5430,7 +5541,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="20.399999999999999">
+    <row r="91" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
         <v>84</v>
       </c>
@@ -5439,7 +5550,7 @@
         <v>Сахалинская область</v>
       </c>
       <c r="C91" s="5" t="b">
-        <f>A91=B91</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D91" s="5" t="str">
@@ -5477,7 +5588,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="30">
+    <row r="92" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
         <v>85</v>
       </c>
@@ -5486,7 +5597,7 @@
         <v>Еврейская автономная область</v>
       </c>
       <c r="C92" s="5" t="b">
-        <f>A92=B92</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D92" s="5" t="str">
@@ -5524,7 +5635,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="30">
+    <row r="93" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
         <v>86</v>
       </c>
@@ -5533,7 +5644,7 @@
         <v>Чукотский автономный округ</v>
       </c>
       <c r="C93" s="5" t="b">
-        <f>A93=B93</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D93" s="5" t="str">
@@ -5573,7 +5684,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5583,20 +5694,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -5604,7 +5715,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -5612,7 +5723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -5620,7 +5731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
@@ -5628,7 +5739,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -5636,7 +5747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -5644,7 +5755,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -5652,7 +5763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
@@ -5660,7 +5771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -5668,7 +5779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -5676,7 +5787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -5684,7 +5795,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -5692,7 +5803,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>177</v>
       </c>
@@ -5700,7 +5811,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>85</v>
       </c>
@@ -5708,7 +5819,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
@@ -5716,7 +5827,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -5724,7 +5835,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>73</v>
       </c>
@@ -5732,7 +5843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
@@ -5740,7 +5851,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
@@ -5748,7 +5859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -5756,7 +5867,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>79</v>
       </c>
@@ -5764,7 +5875,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
@@ -5772,7 +5883,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>74</v>
       </c>
@@ -5780,7 +5891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>51</v>
       </c>
@@ -5788,7 +5899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -5796,7 +5907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>38</v>
       </c>
@@ -5804,7 +5915,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>72</v>
       </c>
@@ -5812,7 +5923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -5820,7 +5931,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>9</v>
       </c>
@@ -5828,7 +5939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>25</v>
       </c>
@@ -5836,7 +5947,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>10</v>
       </c>
@@ -5844,7 +5955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>83</v>
       </c>
@@ -5852,7 +5963,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>11</v>
       </c>
@@ -5860,7 +5971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>26</v>
       </c>
@@ -5868,7 +5979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>164</v>
       </c>
@@ -5876,7 +5987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>52</v>
       </c>
@@ -5884,7 +5995,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>27</v>
       </c>
@@ -5892,7 +6003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>75</v>
       </c>
@@ -5900,7 +6011,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
@@ -5908,7 +6019,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
@@ -5916,7 +6027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>12</v>
       </c>
@@ -5924,7 +6035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>54</v>
       </c>
@@ -5932,7 +6043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>50</v>
       </c>
@@ -5940,7 +6051,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>43</v>
       </c>
@@ -5948,7 +6059,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>80</v>
       </c>
@@ -5956,7 +6067,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>28</v>
       </c>
@@ -5964,7 +6075,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>30</v>
       </c>
@@ -5972,7 +6083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>66</v>
       </c>
@@ -5980,7 +6091,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>44</v>
       </c>
@@ -5988,7 +6099,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>67</v>
       </c>
@@ -5996,7 +6107,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>31</v>
       </c>
@@ -6004,7 +6115,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>32</v>
       </c>
@@ -6012,7 +6123,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>34</v>
       </c>
@@ -6020,7 +6131,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>20</v>
       </c>
@@ -6028,7 +6139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>21</v>
       </c>
@@ -6036,7 +6147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>45</v>
       </c>
@@ -6044,7 +6155,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>46</v>
       </c>
@@ -6052,7 +6163,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>78</v>
       </c>
@@ -6060,7 +6171,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>36</v>
       </c>
@@ -6068,7 +6179,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>47</v>
       </c>
@@ -6076,7 +6187,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>68</v>
       </c>
@@ -6084,7 +6195,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>69</v>
       </c>
@@ -6092,7 +6203,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>42</v>
       </c>
@@ -6100,7 +6211,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>13</v>
       </c>
@@ -6108,7 +6219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>55</v>
       </c>
@@ -6116,7 +6227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>56</v>
       </c>
@@ -6124,7 +6235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>84</v>
       </c>
@@ -6132,7 +6243,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>60</v>
       </c>
@@ -6140,7 +6251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>175</v>
       </c>
@@ -6148,7 +6259,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>182</v>
       </c>
@@ -6156,7 +6267,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>65</v>
       </c>
@@ -6164,7 +6275,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>14</v>
       </c>
@@ -6172,7 +6283,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>39</v>
       </c>
@@ -6180,7 +6291,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>15</v>
       </c>
@@ -6188,7 +6299,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>16</v>
       </c>
@@ -6196,7 +6307,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -6204,7 +6315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>17</v>
       </c>
@@ -6212,7 +6323,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>61</v>
       </c>
@@ -6220,7 +6331,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>48</v>
       </c>
@@ -6228,7 +6339,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>57</v>
       </c>
@@ -6236,7 +6347,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>58</v>
       </c>
@@ -6244,7 +6355,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>81</v>
       </c>
@@ -6252,7 +6363,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>62</v>
       </c>
@@ -6260,7 +6371,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>1</v>
       </c>
@@ -6268,7 +6379,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>64</v>
       </c>
@@ -6276,7 +6387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>37</v>
       </c>
@@ -6284,7 +6395,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>49</v>
       </c>
@@ -6292,7 +6403,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -6300,7 +6411,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>173</v>
       </c>
@@ -6308,7 +6419,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>63</v>
       </c>
@@ -6316,7 +6427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>18</v>
       </c>
@@ -6324,975 +6435,975 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
     </row>
@@ -7305,19 +7416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K93"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10">
         <v>1990</v>
@@ -7350,7 +7461,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.2">
+    <row r="2" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -7385,7 +7496,7 @@
         <v>143347</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.399999999999999">
+    <row r="3" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>184</v>
       </c>
@@ -7420,7 +7531,7 @@
         <v>38679</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.2">
+    <row r="4" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -7455,7 +7566,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.399999999999999">
+    <row r="5" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -7490,7 +7601,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.399999999999999">
+    <row r="6" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -7525,7 +7636,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.399999999999999">
+    <row r="7" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -7560,7 +7671,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.399999999999999">
+    <row r="8" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
@@ -7595,7 +7706,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.399999999999999">
+    <row r="9" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -7630,7 +7741,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.399999999999999">
+    <row r="10" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
@@ -7665,7 +7776,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.399999999999999">
+    <row r="11" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
@@ -7700,7 +7811,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.399999999999999">
+    <row r="12" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
@@ -7735,7 +7846,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.6">
+    <row r="13" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>185</v>
       </c>
@@ -7770,7 +7881,7 @@
         <v>7048</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.399999999999999">
+    <row r="14" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
@@ -7805,7 +7916,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.399999999999999">
+    <row r="15" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
@@ -7840,7 +7951,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.399999999999999">
+    <row r="16" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>14</v>
       </c>
@@ -7875,7 +7986,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.399999999999999">
+    <row r="17" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
@@ -7910,7 +8021,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.399999999999999">
+    <row r="18" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -7945,7 +8056,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.399999999999999">
+    <row r="19" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
@@ -7980,7 +8091,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.399999999999999">
+    <row r="20" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
@@ -8015,7 +8126,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>186</v>
       </c>
@@ -8050,7 +8161,7 @@
         <v>11980</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.399999999999999">
+    <row r="22" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>187</v>
       </c>
@@ -8085,7 +8196,7 @@
         <v>13717</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.399999999999999">
+    <row r="23" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>20</v>
       </c>
@@ -8120,7 +8231,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.399999999999999">
+    <row r="24" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
@@ -8155,7 +8266,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.399999999999999">
+    <row r="25" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
@@ -8190,7 +8301,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="49.2">
+    <row r="26" spans="1:11" ht="49.2" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>188</v>
       </c>
@@ -8225,7 +8336,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.399999999999999">
+    <row r="27" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>23</v>
       </c>
@@ -8260,7 +8371,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>24</v>
       </c>
@@ -8295,7 +8406,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.399999999999999">
+    <row r="29" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
@@ -8330,7 +8441,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.399999999999999">
+    <row r="30" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>26</v>
       </c>
@@ -8365,7 +8476,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="20.399999999999999">
+    <row r="31" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
@@ -8400,7 +8511,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20.399999999999999">
+    <row r="32" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
@@ -8435,7 +8546,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.399999999999999">
+    <row r="33" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>29</v>
       </c>
@@ -8470,7 +8581,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>189</v>
       </c>
@@ -8505,7 +8616,7 @@
         <v>13910</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="20.399999999999999">
+    <row r="35" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>30</v>
       </c>
@@ -8540,7 +8651,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="20.399999999999999">
+    <row r="36" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>34</v>
       </c>
@@ -8575,7 +8686,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="20.399999999999999">
+    <row r="37" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>38</v>
       </c>
@@ -8610,7 +8721,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.399999999999999">
+    <row r="38" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>40</v>
       </c>
@@ -8645,7 +8756,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="20.399999999999999">
+    <row r="39" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>41</v>
       </c>
@@ -8680,7 +8791,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="19.2">
+    <row r="40" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>42</v>
       </c>
@@ -8715,7 +8826,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19.2">
+    <row r="41" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>190</v>
       </c>
@@ -8750,7 +8861,7 @@
         <v>9541</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="20.399999999999999">
+    <row r="42" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>31</v>
       </c>
@@ -8785,7 +8896,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="20.399999999999999">
+    <row r="43" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>191</v>
       </c>
@@ -8820,7 +8931,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30">
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>33</v>
       </c>
@@ -8855,7 +8966,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30">
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>35</v>
       </c>
@@ -8890,7 +9001,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="39.6">
+    <row r="46" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>36</v>
       </c>
@@ -8925,7 +9036,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="20.399999999999999">
+    <row r="47" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>192</v>
       </c>
@@ -8960,7 +9071,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="21" thickBot="1">
+    <row r="48" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>39</v>
       </c>
@@ -8995,7 +9106,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="19.2">
+    <row r="49" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>193</v>
       </c>
@@ -9030,7 +9141,7 @@
         <v>29772</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>44</v>
       </c>
@@ -9065,7 +9176,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="20.399999999999999">
+    <row r="51" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>45</v>
       </c>
@@ -9100,7 +9211,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="20.399999999999999">
+    <row r="52" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>46</v>
       </c>
@@ -9135,7 +9246,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="20.399999999999999">
+    <row r="53" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>47</v>
       </c>
@@ -9170,7 +9281,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="20.399999999999999">
+    <row r="54" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>48</v>
       </c>
@@ -9205,7 +9316,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="20.399999999999999">
+    <row r="55" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>49</v>
       </c>
@@ -9240,7 +9351,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="20.399999999999999">
+    <row r="56" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>50</v>
       </c>
@@ -9275,7 +9386,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="20.399999999999999">
+    <row r="57" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>51</v>
       </c>
@@ -9310,7 +9421,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="20.399999999999999">
+    <row r="58" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>194</v>
       </c>
@@ -9345,7 +9456,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="20.399999999999999">
+    <row r="59" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>53</v>
       </c>
@@ -9380,7 +9491,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="20.399999999999999">
+    <row r="60" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>54</v>
       </c>
@@ -9415,7 +9526,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="20.399999999999999">
+    <row r="61" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>55</v>
       </c>
@@ -9450,7 +9561,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="20.399999999999999">
+    <row r="62" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>56</v>
       </c>
@@ -9485,7 +9596,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="20.399999999999999">
+    <row r="63" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>57</v>
       </c>
@@ -9520,7 +9631,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>195</v>
       </c>
@@ -9555,7 +9666,7 @@
         <v>12198</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="20.399999999999999">
+    <row r="65" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>59</v>
       </c>
@@ -9590,7 +9701,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="20.399999999999999">
+    <row r="66" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>196</v>
       </c>
@@ -9625,7 +9736,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="20.399999999999999">
+    <row r="67" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>61</v>
       </c>
@@ -9660,7 +9771,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="49.2">
+    <row r="68" spans="1:11" ht="49.2" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>197</v>
       </c>
@@ -9695,7 +9806,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="39.6">
+    <row r="69" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>198</v>
       </c>
@@ -9730,7 +9841,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="20.399999999999999">
+    <row r="70" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>64</v>
       </c>
@@ -9765,7 +9876,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>199</v>
       </c>
@@ -9800,7 +9911,7 @@
         <v>19278</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="20.399999999999999">
+    <row r="72" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>66</v>
       </c>
@@ -9835,7 +9946,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="20.399999999999999">
+    <row r="73" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>67</v>
       </c>
@@ -9870,7 +9981,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="20.399999999999999">
+    <row r="74" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>68</v>
       </c>
@@ -9905,7 +10016,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="20.399999999999999">
+    <row r="75" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>69</v>
       </c>
@@ -9940,7 +10051,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="20.399999999999999">
+    <row r="76" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>70</v>
       </c>
@@ -9975,7 +10086,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="20.399999999999999">
+    <row r="77" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>71</v>
       </c>
@@ -10010,7 +10121,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="20.399999999999999">
+    <row r="78" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>72</v>
       </c>
@@ -10045,7 +10156,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="20.399999999999999">
+    <row r="79" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>73</v>
       </c>
@@ -10080,7 +10191,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="20.399999999999999">
+    <row r="80" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
         <v>74</v>
       </c>
@@ -10115,7 +10226,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="20.399999999999999">
+    <row r="81" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>200</v>
       </c>
@@ -10150,7 +10261,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="20.399999999999999">
+    <row r="82" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>76</v>
       </c>
@@ -10185,7 +10296,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="20.399999999999999">
+    <row r="83" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>77</v>
       </c>
@@ -10220,7 +10331,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="19.2">
+    <row r="84" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>201</v>
       </c>
@@ -10255,7 +10366,7 @@
         <v>6252</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
         <v>78</v>
       </c>
@@ -10290,7 +10401,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="20.399999999999999">
+    <row r="86" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>79</v>
       </c>
@@ -10325,7 +10436,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="20.399999999999999">
+    <row r="87" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>80</v>
       </c>
@@ -10360,7 +10471,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="20.399999999999999">
+    <row r="88" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>202</v>
       </c>
@@ -10395,7 +10506,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="20.399999999999999">
+    <row r="89" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
         <v>82</v>
       </c>
@@ -10430,7 +10541,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="20.399999999999999">
+    <row r="90" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>83</v>
       </c>
@@ -10465,7 +10576,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="20.399999999999999">
+    <row r="91" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
         <v>84</v>
       </c>
@@ -10500,7 +10611,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30">
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
         <v>85</v>
       </c>
@@ -10535,7 +10646,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30">
+    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
         <v>86</v>
       </c>
@@ -10570,9 +10681,2154 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1"/>
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="8.88671875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36">
+        <v>1990</v>
+      </c>
+      <c r="F1" s="36">
+        <v>2000</v>
+      </c>
+      <c r="G1" s="36">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="36">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="36">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="36">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="36">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="36">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="36">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>VLOOKUP(A2,Лист2!A:B,1)</f>
+        <v>Республика Хакасия</v>
+      </c>
+      <c r="C2" s="39" t="b">
+        <f>B2=A2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="28">
+        <f>O2*1000</f>
+        <v>116700</v>
+      </c>
+      <c r="F2" s="28">
+        <f t="shared" ref="F2:N2" si="0">P2*1000</f>
+        <v>65400.000000000007</v>
+      </c>
+      <c r="G2" s="28">
+        <f t="shared" si="0"/>
+        <v>77800</v>
+      </c>
+      <c r="H2" s="28">
+        <f t="shared" si="0"/>
+        <v>78200</v>
+      </c>
+      <c r="I2" s="28">
+        <f t="shared" si="0"/>
+        <v>81500</v>
+      </c>
+      <c r="J2" s="28">
+        <f t="shared" si="0"/>
+        <v>108200</v>
+      </c>
+      <c r="K2" s="28">
+        <f t="shared" si="0"/>
+        <v>97100</v>
+      </c>
+      <c r="L2" s="28">
+        <f t="shared" si="0"/>
+        <v>61000</v>
+      </c>
+      <c r="M2" s="28">
+        <f t="shared" si="0"/>
+        <v>94200</v>
+      </c>
+      <c r="N2" s="28">
+        <f t="shared" si="0"/>
+        <v>70900</v>
+      </c>
+      <c r="O2" s="28">
+        <v>116.7</v>
+      </c>
+      <c r="P2" s="28">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>77.8</v>
+      </c>
+      <c r="R2" s="28">
+        <v>78.2</v>
+      </c>
+      <c r="S2" s="28">
+        <v>81.5</v>
+      </c>
+      <c r="T2" s="28">
+        <v>108.2</v>
+      </c>
+      <c r="U2" s="28">
+        <v>97.1</v>
+      </c>
+      <c r="V2" s="28">
+        <v>61</v>
+      </c>
+      <c r="W2" s="28">
+        <v>94.2</v>
+      </c>
+      <c r="X2" s="28">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>VLOOKUP(A3,Лист2!A:B,1)</f>
+        <v>Центральный федеральный округ</v>
+      </c>
+      <c r="C3" s="39" t="b">
+        <f t="shared" ref="C3:C45" si="1">B3=A3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>VLOOKUP(A3,Лист2!A:B,2)</f>
+        <v>RU-FOCE</v>
+      </c>
+      <c r="E3" s="37">
+        <v>23688.6</v>
+      </c>
+      <c r="F3" s="37">
+        <v>11052</v>
+      </c>
+      <c r="G3" s="37">
+        <v>14602.6</v>
+      </c>
+      <c r="H3" s="37">
+        <v>12956.4</v>
+      </c>
+      <c r="I3" s="37">
+        <v>14020.4</v>
+      </c>
+      <c r="J3" s="37">
+        <v>23852.6</v>
+      </c>
+      <c r="K3" s="37">
+        <v>21551</v>
+      </c>
+      <c r="L3" s="37">
+        <v>9703.5</v>
+      </c>
+      <c r="M3" s="37">
+        <v>17068.599999999999</v>
+      </c>
+      <c r="N3" s="37">
+        <v>18194.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39" t="str">
+        <f>VLOOKUP(A4,Лист2!A:B,1)</f>
+        <v>Белгородская область</v>
+      </c>
+      <c r="C4" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="40" t="str">
+        <f>VLOOKUP(A4,Лист2!A:B,2)</f>
+        <v>RU-BEL</v>
+      </c>
+      <c r="E4" s="31">
+        <v>2173.5</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1343.1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>2020.2</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1633.4</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1911.3</v>
+      </c>
+      <c r="J4" s="31">
+        <v>3262.9</v>
+      </c>
+      <c r="K4" s="31">
+        <v>2384.6999999999998</v>
+      </c>
+      <c r="L4" s="31">
+        <v>1031.8</v>
+      </c>
+      <c r="M4" s="31">
+        <v>2354</v>
+      </c>
+      <c r="N4" s="31">
+        <v>2498.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="39" t="str">
+        <f>VLOOKUP(A5,Лист2!A:B,1)</f>
+        <v>Брянская область</v>
+      </c>
+      <c r="C5" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="40" t="str">
+        <f>VLOOKUP(A5,Лист2!A:B,2)</f>
+        <v>RU-BRY</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1176.5999999999999</v>
+      </c>
+      <c r="F5" s="31">
+        <v>388.2</v>
+      </c>
+      <c r="G5" s="31">
+        <v>474</v>
+      </c>
+      <c r="H5" s="31">
+        <v>323.5</v>
+      </c>
+      <c r="I5" s="31">
+        <v>418.3</v>
+      </c>
+      <c r="J5" s="31">
+        <v>552</v>
+      </c>
+      <c r="K5" s="31">
+        <v>608.70000000000005</v>
+      </c>
+      <c r="L5" s="31">
+        <v>381.1</v>
+      </c>
+      <c r="M5" s="31">
+        <v>539.20000000000005</v>
+      </c>
+      <c r="N5" s="31">
+        <v>585.79999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="39" t="str">
+        <f>VLOOKUP(A6,Лист2!A:B,1)</f>
+        <v>Владимирская область</v>
+      </c>
+      <c r="C6" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="40" t="str">
+        <f>VLOOKUP(A6,Лист2!A:B,2)</f>
+        <v>RU-VLA</v>
+      </c>
+      <c r="E6" s="31">
+        <v>467.7</v>
+      </c>
+      <c r="F6" s="31">
+        <v>233.6</v>
+      </c>
+      <c r="G6" s="31">
+        <v>172.2</v>
+      </c>
+      <c r="H6" s="31">
+        <v>166.3</v>
+      </c>
+      <c r="I6" s="31">
+        <v>173.3</v>
+      </c>
+      <c r="J6" s="31">
+        <v>178</v>
+      </c>
+      <c r="K6" s="31">
+        <v>194.3</v>
+      </c>
+      <c r="L6" s="31">
+        <v>110.2</v>
+      </c>
+      <c r="M6" s="31">
+        <v>164.1</v>
+      </c>
+      <c r="N6" s="31">
+        <v>179.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="39" t="str">
+        <f>VLOOKUP(A7,Лист2!A:B,1)</f>
+        <v>Воронежская область</v>
+      </c>
+      <c r="C7" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="40" t="str">
+        <f>VLOOKUP(A7,Лист2!A:B,2)</f>
+        <v>RU-VOR</v>
+      </c>
+      <c r="E7" s="31">
+        <v>3848.7</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1695.5</v>
+      </c>
+      <c r="G7" s="31">
+        <v>2346</v>
+      </c>
+      <c r="H7" s="31">
+        <v>1980.7</v>
+      </c>
+      <c r="I7" s="31">
+        <v>2178.1999999999998</v>
+      </c>
+      <c r="J7" s="31">
+        <v>4528.6000000000004</v>
+      </c>
+      <c r="K7" s="31">
+        <v>3473.8</v>
+      </c>
+      <c r="L7" s="31">
+        <v>854.2</v>
+      </c>
+      <c r="M7" s="31">
+        <v>3047.5</v>
+      </c>
+      <c r="N7" s="31">
+        <v>3111.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="39" t="str">
+        <f>VLOOKUP(A8,Лист2!A:B,1)</f>
+        <v>Ивановская область</v>
+      </c>
+      <c r="C8" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="40" t="str">
+        <f>VLOOKUP(A8,Лист2!A:B,2)</f>
+        <v>RU-IVA</v>
+      </c>
+      <c r="E8" s="31">
+        <v>427.4</v>
+      </c>
+      <c r="F8" s="31">
+        <v>169.1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>92.7</v>
+      </c>
+      <c r="H8" s="31">
+        <v>80.5</v>
+      </c>
+      <c r="I8" s="31">
+        <v>111.2</v>
+      </c>
+      <c r="J8" s="31">
+        <v>100.9</v>
+      </c>
+      <c r="K8" s="31">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="L8" s="31">
+        <v>81.8</v>
+      </c>
+      <c r="M8" s="31">
+        <v>102.8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="39" t="str">
+        <f>VLOOKUP(A9,Лист2!A:B,1)</f>
+        <v>Калужская область</v>
+      </c>
+      <c r="C9" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="40" t="str">
+        <f>VLOOKUP(A9,Лист2!A:B,2)</f>
+        <v>RU-KLU</v>
+      </c>
+      <c r="E9" s="31">
+        <v>519.9</v>
+      </c>
+      <c r="F9" s="31">
+        <v>147</v>
+      </c>
+      <c r="G9" s="31">
+        <v>120.6</v>
+      </c>
+      <c r="H9" s="31">
+        <v>101.6</v>
+      </c>
+      <c r="I9" s="31">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="J9" s="31">
+        <v>190.5</v>
+      </c>
+      <c r="K9" s="31">
+        <v>196.8</v>
+      </c>
+      <c r="L9" s="31">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="M9" s="31">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="N9" s="31">
+        <v>165.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="39" t="str">
+        <f>VLOOKUP(A10,Лист2!A:B,1)</f>
+        <v>Костромская область</v>
+      </c>
+      <c r="C10" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="40" t="str">
+        <f>VLOOKUP(A10,Лист2!A:B,2)</f>
+        <v>RU-KOS</v>
+      </c>
+      <c r="E10" s="31">
+        <v>292.7</v>
+      </c>
+      <c r="F10" s="31">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="G10" s="31">
+        <v>72.7</v>
+      </c>
+      <c r="H10" s="31">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="I10" s="31">
+        <v>91.6</v>
+      </c>
+      <c r="J10" s="31">
+        <v>82.6</v>
+      </c>
+      <c r="K10" s="31">
+        <v>83.7</v>
+      </c>
+      <c r="L10" s="31">
+        <v>48.7</v>
+      </c>
+      <c r="M10" s="31">
+        <v>68</v>
+      </c>
+      <c r="N10" s="31">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="39" t="str">
+        <f>VLOOKUP(A11,Лист2!A:B,1)</f>
+        <v>Курская область</v>
+      </c>
+      <c r="C11" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="40" t="str">
+        <f>VLOOKUP(A11,Лист2!A:B,2)</f>
+        <v>RU-KRS</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2558</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1401.5</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1903.2</v>
+      </c>
+      <c r="H11" s="31">
+        <v>1738.7</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1926</v>
+      </c>
+      <c r="J11" s="31">
+        <v>3351.5</v>
+      </c>
+      <c r="K11" s="31">
+        <v>3054.1</v>
+      </c>
+      <c r="L11" s="31">
+        <v>1526.4</v>
+      </c>
+      <c r="M11" s="31">
+        <v>2649.4</v>
+      </c>
+      <c r="N11" s="31">
+        <v>2844.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="39" t="str">
+        <f>VLOOKUP(A12,Лист2!A:B,1)</f>
+        <v>Липецкая область</v>
+      </c>
+      <c r="C12" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="40" t="str">
+        <f>VLOOKUP(A12,Лист2!A:B,2)</f>
+        <v>RU-LIP</v>
+      </c>
+      <c r="E12" s="31">
+        <v>2047.6</v>
+      </c>
+      <c r="F12" s="31">
+        <v>921.6</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1907.9</v>
+      </c>
+      <c r="H12" s="31">
+        <v>1726.6</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1794</v>
+      </c>
+      <c r="J12" s="31">
+        <v>2913.4</v>
+      </c>
+      <c r="K12" s="31">
+        <v>2725.2</v>
+      </c>
+      <c r="L12" s="31">
+        <v>1214.5</v>
+      </c>
+      <c r="M12" s="31">
+        <v>1972.5</v>
+      </c>
+      <c r="N12" s="31">
+        <v>1866.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="39" t="str">
+        <f>VLOOKUP(A13,Лист2!A:B,1)</f>
+        <v>Московская область</v>
+      </c>
+      <c r="C13" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="40" t="str">
+        <f>VLOOKUP(A13,Лист2!A:B,2)</f>
+        <v>RU-MOS</v>
+      </c>
+      <c r="E13" s="31">
+        <v>637.20000000000005</v>
+      </c>
+      <c r="F13" s="31">
+        <v>341.4</v>
+      </c>
+      <c r="G13" s="31">
+        <v>210.6</v>
+      </c>
+      <c r="H13" s="31">
+        <v>203.1</v>
+      </c>
+      <c r="I13" s="31">
+        <v>190.6</v>
+      </c>
+      <c r="J13" s="31">
+        <v>243.8</v>
+      </c>
+      <c r="K13" s="31">
+        <v>237.1</v>
+      </c>
+      <c r="L13" s="31">
+        <v>172.2</v>
+      </c>
+      <c r="M13" s="31">
+        <v>221.8</v>
+      </c>
+      <c r="N13" s="31">
+        <v>238.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="39" t="str">
+        <f>VLOOKUP(A14,Лист2!A:B,1)</f>
+        <v>Орловская область</v>
+      </c>
+      <c r="C14" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="40" t="str">
+        <f>VLOOKUP(A14,Лист2!A:B,2)</f>
+        <v>RU-ORL</v>
+      </c>
+      <c r="E14" s="31">
+        <v>2074.5</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1398.1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1670.1</v>
+      </c>
+      <c r="H14" s="31">
+        <v>1276.8</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1353.6</v>
+      </c>
+      <c r="J14" s="31">
+        <v>2282.3000000000002</v>
+      </c>
+      <c r="K14" s="31">
+        <v>2393.1</v>
+      </c>
+      <c r="L14" s="31">
+        <v>1507.8</v>
+      </c>
+      <c r="M14" s="31">
+        <v>1676.9</v>
+      </c>
+      <c r="N14" s="31">
+        <v>2072.3000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="39" t="str">
+        <f>VLOOKUP(A15,Лист2!A:B,1)</f>
+        <v>Рязанская область</v>
+      </c>
+      <c r="C15" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="40" t="str">
+        <f>VLOOKUP(A15,Лист2!A:B,2)</f>
+        <v>RU-RYA</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1715.3</v>
+      </c>
+      <c r="F15" s="31">
+        <v>688.9</v>
+      </c>
+      <c r="G15" s="31">
+        <v>871</v>
+      </c>
+      <c r="H15" s="31">
+        <v>929.4</v>
+      </c>
+      <c r="I15" s="31">
+        <v>945.5</v>
+      </c>
+      <c r="J15" s="31">
+        <v>1554.5</v>
+      </c>
+      <c r="K15" s="31">
+        <v>1569.6</v>
+      </c>
+      <c r="L15" s="31">
+        <v>655.1</v>
+      </c>
+      <c r="M15" s="31">
+        <v>938.3</v>
+      </c>
+      <c r="N15" s="31">
+        <v>1059.0999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="39" t="str">
+        <f>VLOOKUP(A16,Лист2!A:B,1)</f>
+        <v>Смоленская область</v>
+      </c>
+      <c r="C16" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="40" t="str">
+        <f>VLOOKUP(A16,Лист2!A:B,2)</f>
+        <v>RU-SMO</v>
+      </c>
+      <c r="E16" s="31">
+        <v>846.3</v>
+      </c>
+      <c r="F16" s="31">
+        <v>182.6</v>
+      </c>
+      <c r="G16" s="31">
+        <v>137.6</v>
+      </c>
+      <c r="H16" s="31">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I16" s="31">
+        <v>118.7</v>
+      </c>
+      <c r="J16" s="31">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="K16" s="31">
+        <v>166.3</v>
+      </c>
+      <c r="L16" s="31">
+        <v>85.8</v>
+      </c>
+      <c r="M16" s="31">
+        <v>207</v>
+      </c>
+      <c r="N16" s="31">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="39" t="str">
+        <f>VLOOKUP(A17,Лист2!A:B,1)</f>
+        <v>Тамбовская область</v>
+      </c>
+      <c r="C17" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="40" t="str">
+        <f>VLOOKUP(A17,Лист2!A:B,2)</f>
+        <v>RU-TAM</v>
+      </c>
+      <c r="E17" s="31">
+        <v>2448.6</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1024.3</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1576.6</v>
+      </c>
+      <c r="H17" s="31">
+        <v>1695.5</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1581.1</v>
+      </c>
+      <c r="J17" s="31">
+        <v>2869.7</v>
+      </c>
+      <c r="K17" s="31">
+        <v>2632.6</v>
+      </c>
+      <c r="L17" s="31">
+        <v>925.6</v>
+      </c>
+      <c r="M17" s="31">
+        <v>1919.8</v>
+      </c>
+      <c r="N17" s="31">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="39" t="str">
+        <f>VLOOKUP(A18,Лист2!A:B,1)</f>
+        <v>Тверская область</v>
+      </c>
+      <c r="C18" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="40" t="str">
+        <f>VLOOKUP(A18,Лист2!A:B,2)</f>
+        <v>RU-TVE</v>
+      </c>
+      <c r="E18" s="31">
+        <v>722.4</v>
+      </c>
+      <c r="F18" s="31">
+        <v>174</v>
+      </c>
+      <c r="G18" s="31">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="H18" s="31">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="I18" s="31">
+        <v>138.6</v>
+      </c>
+      <c r="J18" s="31">
+        <v>147.5</v>
+      </c>
+      <c r="K18" s="31">
+        <v>121.3</v>
+      </c>
+      <c r="L18" s="31">
+        <v>62.5</v>
+      </c>
+      <c r="M18" s="31">
+        <v>90.1</v>
+      </c>
+      <c r="N18" s="31">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="39" t="str">
+        <f>VLOOKUP(A19,Лист2!A:B,1)</f>
+        <v>Тульская область</v>
+      </c>
+      <c r="C19" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="40" t="str">
+        <f>VLOOKUP(A19,Лист2!A:B,2)</f>
+        <v>RU-TUL</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1446.2</v>
+      </c>
+      <c r="F19" s="31">
+        <v>641.20000000000005</v>
+      </c>
+      <c r="G19" s="31">
+        <v>828</v>
+      </c>
+      <c r="H19" s="31">
+        <v>742.7</v>
+      </c>
+      <c r="I19" s="31">
+        <v>862.6</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1333.1</v>
+      </c>
+      <c r="K19" s="31">
+        <v>1476.5</v>
+      </c>
+      <c r="L19" s="31">
+        <v>856.1</v>
+      </c>
+      <c r="M19" s="31">
+        <v>890.5</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1140.9000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="39" t="str">
+        <f>VLOOKUP(A20,Лист2!A:B,1)</f>
+        <v>Ярославская область</v>
+      </c>
+      <c r="C20" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="40" t="str">
+        <f>VLOOKUP(A20,Лист2!A:B,2)</f>
+        <v>RU-YAR</v>
+      </c>
+      <c r="E20" s="31">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="F20" s="31">
+        <v>154.9</v>
+      </c>
+      <c r="G20" s="31">
+        <v>71.2</v>
+      </c>
+      <c r="H20" s="31">
+        <v>82.3</v>
+      </c>
+      <c r="I20" s="31">
+        <v>92.1</v>
+      </c>
+      <c r="J20" s="31">
+        <v>102.8</v>
+      </c>
+      <c r="K20" s="31">
+        <v>102.8</v>
+      </c>
+      <c r="L20" s="31">
+        <v>51</v>
+      </c>
+      <c r="M20" s="31">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="N20" s="31">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="39" t="str">
+        <f>VLOOKUP(A21,Лист2!A:B,1)</f>
+        <v>г. Москва</v>
+      </c>
+      <c r="C21" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="40" t="str">
+        <f>VLOOKUP(A21,Лист2!A:B,2)</f>
+        <v>RU-MOW</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="39" t="str">
+        <f>VLOOKUP(A22,Лист2!A:B,1)</f>
+        <v>Северо-Западный федеральный округ</v>
+      </c>
+      <c r="C22" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="40" t="str">
+        <f>VLOOKUP(A22,Лист2!A:B,2)</f>
+        <v>RU-FOSZ</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1532.1</v>
+      </c>
+      <c r="F22" s="37">
+        <v>585.20000000000005</v>
+      </c>
+      <c r="G22" s="37">
+        <v>550.9</v>
+      </c>
+      <c r="H22" s="37">
+        <v>448.6</v>
+      </c>
+      <c r="I22" s="37">
+        <v>514.4</v>
+      </c>
+      <c r="J22" s="37">
+        <v>619.4</v>
+      </c>
+      <c r="K22" s="37">
+        <v>664.5</v>
+      </c>
+      <c r="L22" s="37">
+        <v>461.1</v>
+      </c>
+      <c r="M22" s="37">
+        <v>568.9</v>
+      </c>
+      <c r="N22" s="37">
+        <v>620.29999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="39" t="str">
+        <f>VLOOKUP(A23,Лист2!A:B,1)</f>
+        <v>Республика Карелия</v>
+      </c>
+      <c r="C23" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="40" t="str">
+        <f>VLOOKUP(A23,Лист2!A:B,2)</f>
+        <v>RU-KR</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H23" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="L23" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="39" t="str">
+        <f>VLOOKUP(A24,Лист2!A:B,1)</f>
+        <v>Республика Коми</v>
+      </c>
+      <c r="C24" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="40" t="str">
+        <f>VLOOKUP(A24,Лист2!A:B,2)</f>
+        <v>RU-KO</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="31">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="J24" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="K24" s="31">
+        <v>0</v>
+      </c>
+      <c r="L24" s="31">
+        <v>0</v>
+      </c>
+      <c r="M24" s="31">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="39" t="str">
+        <f>VLOOKUP(A25,Лист2!A:B,1)</f>
+        <v>Архангельская область</v>
+      </c>
+      <c r="C25" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="40" t="str">
+        <f>VLOOKUP(A25,Лист2!A:B,2)</f>
+        <v>RU-ARK</v>
+      </c>
+      <c r="E25" s="31">
+        <v>98.7</v>
+      </c>
+      <c r="F25" s="31">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G25" s="31">
+        <v>3.7</v>
+      </c>
+      <c r="H25" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="I25" s="31">
+        <v>5.4</v>
+      </c>
+      <c r="J25" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="K25" s="31">
+        <v>3</v>
+      </c>
+      <c r="L25" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="M25" s="31">
+        <v>7.1</v>
+      </c>
+      <c r="N25" s="31">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="39" t="str">
+        <f>VLOOKUP(A26,Лист2!A:B,1)</f>
+        <v>Вологодская область</v>
+      </c>
+      <c r="C26" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="40" t="str">
+        <f>VLOOKUP(A26,Лист2!A:B,2)</f>
+        <v>RU-VLG</v>
+      </c>
+      <c r="E26" s="31">
+        <v>382.2</v>
+      </c>
+      <c r="F26" s="31">
+        <v>220.3</v>
+      </c>
+      <c r="G26" s="31">
+        <v>192.8</v>
+      </c>
+      <c r="H26" s="31">
+        <v>193.2</v>
+      </c>
+      <c r="I26" s="31">
+        <v>224</v>
+      </c>
+      <c r="J26" s="31">
+        <v>242.2</v>
+      </c>
+      <c r="K26" s="31">
+        <v>238.2</v>
+      </c>
+      <c r="L26" s="31">
+        <v>153.5</v>
+      </c>
+      <c r="M26" s="31">
+        <v>245.2</v>
+      </c>
+      <c r="N26" s="31">
+        <v>212.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="39" t="str">
+        <f>VLOOKUP(A27,Лист2!A:B,1)</f>
+        <v>Калининградская область</v>
+      </c>
+      <c r="C27" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="40" t="str">
+        <f>VLOOKUP(A27,Лист2!A:B,2)</f>
+        <v>RU-KGD</v>
+      </c>
+      <c r="E27" s="31">
+        <v>489.2</v>
+      </c>
+      <c r="F27" s="31">
+        <v>198</v>
+      </c>
+      <c r="G27" s="31">
+        <v>253.6</v>
+      </c>
+      <c r="H27" s="31">
+        <v>145.9</v>
+      </c>
+      <c r="I27" s="31">
+        <v>160.6</v>
+      </c>
+      <c r="J27" s="31">
+        <v>227.4</v>
+      </c>
+      <c r="K27" s="31">
+        <v>266</v>
+      </c>
+      <c r="L27" s="31">
+        <v>186.3</v>
+      </c>
+      <c r="M27" s="31">
+        <v>156.5</v>
+      </c>
+      <c r="N27" s="31">
+        <v>222.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="39" t="str">
+        <f>VLOOKUP(A28,Лист2!A:B,1)</f>
+        <v>Ленинградская область</v>
+      </c>
+      <c r="C28" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="40" t="str">
+        <f>VLOOKUP(A28,Лист2!A:B,2)</f>
+        <v>RU-LEN</v>
+      </c>
+      <c r="E28" s="31">
+        <v>84.5</v>
+      </c>
+      <c r="F28" s="31">
+        <v>52.5</v>
+      </c>
+      <c r="G28" s="31">
+        <v>58.4</v>
+      </c>
+      <c r="H28" s="31">
+        <v>71.8</v>
+      </c>
+      <c r="I28" s="31">
+        <v>85.4</v>
+      </c>
+      <c r="J28" s="31">
+        <v>98.3</v>
+      </c>
+      <c r="K28" s="31">
+        <v>105.9</v>
+      </c>
+      <c r="L28" s="31">
+        <v>79.2</v>
+      </c>
+      <c r="M28" s="31">
+        <v>94</v>
+      </c>
+      <c r="N28" s="31">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="39" t="str">
+        <f>VLOOKUP(A29,Лист2!A:B,1)</f>
+        <v>Новгородская область</v>
+      </c>
+      <c r="C29" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="40" t="str">
+        <f>VLOOKUP(A29,Лист2!A:B,2)</f>
+        <v>RU-NGR</v>
+      </c>
+      <c r="E29" s="31">
+        <v>169.7</v>
+      </c>
+      <c r="F29" s="31">
+        <v>23.8</v>
+      </c>
+      <c r="G29" s="31">
+        <v>8.4</v>
+      </c>
+      <c r="H29" s="31">
+        <v>10</v>
+      </c>
+      <c r="I29" s="31">
+        <v>12.4</v>
+      </c>
+      <c r="J29" s="31">
+        <v>16.8</v>
+      </c>
+      <c r="K29" s="31">
+        <v>15.6</v>
+      </c>
+      <c r="L29" s="31">
+        <v>15.8</v>
+      </c>
+      <c r="M29" s="31">
+        <v>28.4</v>
+      </c>
+      <c r="N29" s="31">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="39" t="str">
+        <f>VLOOKUP(A30,Лист2!A:B,1)</f>
+        <v>Псковская область</v>
+      </c>
+      <c r="C30" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="40" t="str">
+        <f>VLOOKUP(A30,Лист2!A:B,2)</f>
+        <v>RU-PSK</v>
+      </c>
+      <c r="E30" s="31">
+        <v>306</v>
+      </c>
+      <c r="F30" s="31">
+        <v>78.3</v>
+      </c>
+      <c r="G30" s="31">
+        <v>32.5</v>
+      </c>
+      <c r="H30" s="31">
+        <v>22.1</v>
+      </c>
+      <c r="I30" s="31">
+        <v>24.9</v>
+      </c>
+      <c r="J30" s="31">
+        <v>31</v>
+      </c>
+      <c r="K30" s="31">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L30" s="31">
+        <v>22.6</v>
+      </c>
+      <c r="M30" s="31">
+        <v>37.5</v>
+      </c>
+      <c r="N30" s="31">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="39" t="str">
+        <f>VLOOKUP(A31,Лист2!A:B,1)</f>
+        <v>Южный федеральный округ</v>
+      </c>
+      <c r="C31" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="40" t="str">
+        <f>VLOOKUP(A31,Лист2!A:B,2)</f>
+        <v>RU-FOYU</v>
+      </c>
+      <c r="E31" s="38">
+        <v>26059.7</v>
+      </c>
+      <c r="F31" s="38">
+        <v>12742</v>
+      </c>
+      <c r="G31" s="38">
+        <v>18796.400000000001</v>
+      </c>
+      <c r="H31" s="38">
+        <v>18539.400000000001</v>
+      </c>
+      <c r="I31" s="38">
+        <v>15556</v>
+      </c>
+      <c r="J31" s="38">
+        <v>26709.200000000001</v>
+      </c>
+      <c r="K31" s="38">
+        <v>20322.2</v>
+      </c>
+      <c r="L31" s="38">
+        <v>18818.8</v>
+      </c>
+      <c r="M31" s="38">
+        <v>22695.3</v>
+      </c>
+      <c r="N31" s="38">
+        <v>17936.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="39" t="str">
+        <f>VLOOKUP(A32,Лист2!A:B,1)</f>
+        <v>Республика Адыгея</v>
+      </c>
+      <c r="C32" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="40" t="str">
+        <f>VLOOKUP(A32,Лист2!A:B,2)</f>
+        <v>RU-AD</v>
+      </c>
+      <c r="E32" s="31">
+        <v>486.9</v>
+      </c>
+      <c r="F32" s="31">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="G32" s="31">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="H32" s="31">
+        <v>302.3</v>
+      </c>
+      <c r="I32" s="31">
+        <v>383.5</v>
+      </c>
+      <c r="J32" s="31">
+        <v>543</v>
+      </c>
+      <c r="K32" s="31">
+        <v>471.5</v>
+      </c>
+      <c r="L32" s="31">
+        <v>437.5</v>
+      </c>
+      <c r="M32" s="31">
+        <v>427.2</v>
+      </c>
+      <c r="N32" s="31">
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="39" t="str">
+        <f>VLOOKUP(A33,Лист2!A:B,1)</f>
+        <v>Республика Калмыкия</v>
+      </c>
+      <c r="C33" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="40" t="str">
+        <f>VLOOKUP(A33,Лист2!A:B,2)</f>
+        <v>RU-KL</v>
+      </c>
+      <c r="E33" s="31">
+        <v>862.2</v>
+      </c>
+      <c r="F33" s="31">
+        <v>215.7</v>
+      </c>
+      <c r="G33" s="31">
+        <v>343.8</v>
+      </c>
+      <c r="H33" s="31">
+        <v>359.5</v>
+      </c>
+      <c r="I33" s="31">
+        <v>170.2</v>
+      </c>
+      <c r="J33" s="31">
+        <v>437.4</v>
+      </c>
+      <c r="K33" s="31">
+        <v>401.5</v>
+      </c>
+      <c r="L33" s="31">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="M33" s="31">
+        <v>357</v>
+      </c>
+      <c r="N33" s="31">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="39" t="str">
+        <f>VLOOKUP(A34,Лист2!A:B,1)</f>
+        <v>Краснодарский край</v>
+      </c>
+      <c r="C34" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="40" t="str">
+        <f>VLOOKUP(A34,Лист2!A:B,2)</f>
+        <v>RU-KDA</v>
+      </c>
+      <c r="E34" s="31">
+        <v>9769.7999999999993</v>
+      </c>
+      <c r="F34" s="31">
+        <v>6776.5</v>
+      </c>
+      <c r="G34" s="31">
+        <v>8257.9</v>
+      </c>
+      <c r="H34" s="31">
+        <v>8196.4</v>
+      </c>
+      <c r="I34" s="31">
+        <v>8103.8</v>
+      </c>
+      <c r="J34" s="32">
+        <v>11634.4</v>
+      </c>
+      <c r="K34" s="31">
+        <v>9486</v>
+      </c>
+      <c r="L34" s="31">
+        <v>9942.6</v>
+      </c>
+      <c r="M34" s="32">
+        <v>11454.6</v>
+      </c>
+      <c r="N34" s="31">
+        <v>8839.2000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="39" t="str">
+        <f>VLOOKUP(A35,Лист2!A:B,1)</f>
+        <v>Астраханская область</v>
+      </c>
+      <c r="C35" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="40" t="str">
+        <f>VLOOKUP(A35,Лист2!A:B,2)</f>
+        <v>RU-AST</v>
+      </c>
+      <c r="E35" s="31">
+        <v>260.5</v>
+      </c>
+      <c r="F35" s="31">
+        <v>59.2</v>
+      </c>
+      <c r="G35" s="31">
+        <v>42.7</v>
+      </c>
+      <c r="H35" s="31">
+        <v>39</v>
+      </c>
+      <c r="I35" s="31">
+        <v>29.6</v>
+      </c>
+      <c r="J35" s="31">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K35" s="31">
+        <v>48.1</v>
+      </c>
+      <c r="L35" s="31">
+        <v>43.6</v>
+      </c>
+      <c r="M35" s="31">
+        <v>45.6</v>
+      </c>
+      <c r="N35" s="31">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="39" t="str">
+        <f>VLOOKUP(A36,Лист2!A:B,1)</f>
+        <v>Волгоградская область</v>
+      </c>
+      <c r="C36" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="40" t="str">
+        <f>VLOOKUP(A36,Лист2!A:B,2)</f>
+        <v>RU-VGG</v>
+      </c>
+      <c r="E36" s="31">
+        <v>5303.3</v>
+      </c>
+      <c r="F36" s="31">
+        <v>1799.9</v>
+      </c>
+      <c r="G36" s="31">
+        <v>3581.4</v>
+      </c>
+      <c r="H36" s="31">
+        <v>3334.9</v>
+      </c>
+      <c r="I36" s="31">
+        <v>2774.1</v>
+      </c>
+      <c r="J36" s="31">
+        <v>5183.2</v>
+      </c>
+      <c r="K36" s="31">
+        <v>3317.1</v>
+      </c>
+      <c r="L36" s="31">
+        <v>1498.7</v>
+      </c>
+      <c r="M36" s="31">
+        <v>2674.9</v>
+      </c>
+      <c r="N36" s="31">
+        <v>2422.6999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="39" t="str">
+        <f>VLOOKUP(A37,Лист2!A:B,1)</f>
+        <v>Ростовская область</v>
+      </c>
+      <c r="C37" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="40" t="str">
+        <f>VLOOKUP(A37,Лист2!A:B,2)</f>
+        <v>RU-ROS</v>
+      </c>
+      <c r="E37" s="31">
+        <v>9377</v>
+      </c>
+      <c r="F37" s="31">
+        <v>3627.7</v>
+      </c>
+      <c r="G37" s="31">
+        <v>6266.9</v>
+      </c>
+      <c r="H37" s="31">
+        <v>6307.2</v>
+      </c>
+      <c r="I37" s="31">
+        <v>4094.8</v>
+      </c>
+      <c r="J37" s="31">
+        <v>8871.1</v>
+      </c>
+      <c r="K37" s="31">
+        <v>6598</v>
+      </c>
+      <c r="L37" s="31">
+        <v>6620.9</v>
+      </c>
+      <c r="M37" s="31">
+        <v>7735.9</v>
+      </c>
+      <c r="N37" s="31">
+        <v>6159.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="39" t="str">
+        <f>VLOOKUP(A38,Лист2!A:B,1)</f>
+        <v>Северо-Кавказский федеральный округ</v>
+      </c>
+      <c r="C38" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="40" t="str">
+        <f>VLOOKUP(A38,Лист2!A:B,2)</f>
+        <v>RU-FOSK</v>
+      </c>
+      <c r="E38" s="38">
+        <v>8278.7000000000007</v>
+      </c>
+      <c r="F38" s="38">
+        <v>4592</v>
+      </c>
+      <c r="G38" s="38">
+        <v>7862.8</v>
+      </c>
+      <c r="H38" s="38">
+        <v>7375.2</v>
+      </c>
+      <c r="I38" s="38">
+        <v>8235.2999999999993</v>
+      </c>
+      <c r="J38" s="38">
+        <v>10269.1</v>
+      </c>
+      <c r="K38" s="38">
+        <v>8585.4</v>
+      </c>
+      <c r="L38" s="38">
+        <v>8434.7999999999993</v>
+      </c>
+      <c r="M38" s="38">
+        <v>10121.200000000001</v>
+      </c>
+      <c r="N38" s="38">
+        <v>6671.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="39" t="str">
+        <f>VLOOKUP(A39,Лист2!A:B,1)</f>
+        <v>Республика Дагестан</v>
+      </c>
+      <c r="C39" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="40" t="str">
+        <f>VLOOKUP(A39,Лист2!A:B,2)</f>
+        <v>RU-DA</v>
+      </c>
+      <c r="E39" s="31">
+        <v>491.7</v>
+      </c>
+      <c r="F39" s="31">
+        <v>216.6</v>
+      </c>
+      <c r="G39" s="31">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="H39" s="31">
+        <v>246</v>
+      </c>
+      <c r="I39" s="31">
+        <v>200.8</v>
+      </c>
+      <c r="J39" s="31">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="K39" s="31">
+        <v>207.5</v>
+      </c>
+      <c r="L39" s="31">
+        <v>209.7</v>
+      </c>
+      <c r="M39" s="31">
+        <v>244.4</v>
+      </c>
+      <c r="N39" s="31">
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="39" t="str">
+        <f>VLOOKUP(A40,Лист2!A:B,1)</f>
+        <v>Республика Ингушетия</v>
+      </c>
+      <c r="C40" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="40" t="str">
+        <f>VLOOKUP(A40,Лист2!A:B,2)</f>
+        <v>RU-IN</v>
+      </c>
+      <c r="E40" s="33">
+        <v>515.29999999999995</v>
+      </c>
+      <c r="F40" s="33">
+        <v>31.2</v>
+      </c>
+      <c r="G40" s="33">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H40" s="33">
+        <v>36.6</v>
+      </c>
+      <c r="I40" s="33">
+        <v>31.5</v>
+      </c>
+      <c r="J40" s="33">
+        <v>57.7</v>
+      </c>
+      <c r="K40" s="33">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="L40" s="33">
+        <v>43.9</v>
+      </c>
+      <c r="M40" s="33">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="N40" s="33">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="39" t="str">
+        <f>VLOOKUP(A41,Лист2!A:B,1)</f>
+        <v>Кабардино-Балкарская Республика</v>
+      </c>
+      <c r="C41" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="40" t="str">
+        <f>VLOOKUP(A41,Лист2!A:B,2)</f>
+        <v>RU-KB</v>
+      </c>
+      <c r="E41" s="31">
+        <v>604.5</v>
+      </c>
+      <c r="F41" s="31">
+        <v>391.3</v>
+      </c>
+      <c r="G41" s="31">
+        <v>398.7</v>
+      </c>
+      <c r="H41" s="31">
+        <v>411.1</v>
+      </c>
+      <c r="I41" s="31">
+        <v>438.9</v>
+      </c>
+      <c r="J41" s="31">
+        <v>671.7</v>
+      </c>
+      <c r="K41" s="31">
+        <v>581.70000000000005</v>
+      </c>
+      <c r="L41" s="31">
+        <v>645.1</v>
+      </c>
+      <c r="M41" s="31">
+        <v>739.9</v>
+      </c>
+      <c r="N41" s="31">
+        <v>817.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="39" t="str">
+        <f>VLOOKUP(A42,Лист2!A:B,1)</f>
+        <v>Карачаево-Черкесская Республика</v>
+      </c>
+      <c r="C42" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="40" t="str">
+        <f>VLOOKUP(A42,Лист2!A:B,2)</f>
+        <v>RU-KC</v>
+      </c>
+      <c r="E42" s="31">
+        <v>202.3</v>
+      </c>
+      <c r="F42" s="31">
+        <v>133</v>
+      </c>
+      <c r="G42" s="31">
+        <v>85.9</v>
+      </c>
+      <c r="H42" s="31">
+        <v>89.3</v>
+      </c>
+      <c r="I42" s="31">
+        <v>126</v>
+      </c>
+      <c r="J42" s="31">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="K42" s="31">
+        <v>162.4</v>
+      </c>
+      <c r="L42" s="31">
+        <v>140.5</v>
+      </c>
+      <c r="M42" s="31">
+        <v>197.7</v>
+      </c>
+      <c r="N42" s="31">
+        <v>193.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="39" t="str">
+        <f>VLOOKUP(A43,Лист2!A:B,1)</f>
+        <v>Республика Северная Осетия - Алания</v>
+      </c>
+      <c r="C43" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="40" t="str">
+        <f>VLOOKUP(A43,Лист2!A:B,2)</f>
+        <v>RU-SE</v>
+      </c>
+      <c r="E43" s="33">
+        <v>390.6</v>
+      </c>
+      <c r="F43" s="33">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="G43" s="33">
+        <v>216.1</v>
+      </c>
+      <c r="H43" s="33">
+        <v>199.8</v>
+      </c>
+      <c r="I43" s="33">
+        <v>299.5</v>
+      </c>
+      <c r="J43" s="33">
+        <v>520.4</v>
+      </c>
+      <c r="K43" s="33">
+        <v>457.5</v>
+      </c>
+      <c r="L43" s="33">
+        <v>400.6</v>
+      </c>
+      <c r="M43" s="33">
+        <v>495</v>
+      </c>
+      <c r="N43" s="33">
+        <v>517.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="39" t="str">
+        <f>VLOOKUP(A44,Лист2!A:B,1)</f>
+        <v>Чеченская Республика</v>
+      </c>
+      <c r="C44" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="40" t="str">
+        <f>VLOOKUP(A44,Лист2!A:B,2)</f>
+        <v>RU-CE</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33">
+        <v>116</v>
+      </c>
+      <c r="H44" s="33">
+        <v>121.3</v>
+      </c>
+      <c r="I44" s="33">
+        <v>123.8</v>
+      </c>
+      <c r="J44" s="33">
+        <v>182.3</v>
+      </c>
+      <c r="K44" s="33">
+        <v>172.1</v>
+      </c>
+      <c r="L44" s="33">
+        <v>125.5</v>
+      </c>
+      <c r="M44" s="33">
+        <v>185</v>
+      </c>
+      <c r="N44" s="33">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="39" t="str">
+        <f>VLOOKUP(A45,Лист2!A:B,1)</f>
+        <v>Ставропольский край</v>
+      </c>
+      <c r="C45" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="40" t="str">
+        <f>VLOOKUP(A45,Лист2!A:B,2)</f>
+        <v>RU-STA</v>
+      </c>
+      <c r="E45" s="35">
+        <v>6074.4</v>
+      </c>
+      <c r="F45" s="35">
+        <v>3674.6</v>
+      </c>
+      <c r="G45" s="35">
+        <v>6697.2</v>
+      </c>
+      <c r="H45" s="35">
+        <v>6271.2</v>
+      </c>
+      <c r="I45" s="35">
+        <v>7014.9</v>
+      </c>
+      <c r="J45" s="35">
+        <v>8413.2999999999993</v>
+      </c>
+      <c r="K45" s="35">
+        <v>6934.9</v>
+      </c>
+      <c r="L45" s="35">
+        <v>6869.6</v>
+      </c>
+      <c r="M45" s="35">
+        <v>8186</v>
+      </c>
+      <c r="N45" s="35">
+        <v>4839.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rustat/db/pars/NAS/CHI.xlsx
+++ b/rustat/db/pars/NAS/CHI.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="204">
   <si>
     <t>Российская Федерация</t>
   </si>
@@ -871,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -990,6 +990,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4422,7 +4426,7 @@
         <v>Тюменская область</v>
       </c>
       <c r="C67" s="5" t="b">
-        <f t="shared" ref="C67:C98" si="2">A67=B67</f>
+        <f t="shared" ref="C67:C93" si="2">A67=B67</f>
         <v>1</v>
       </c>
       <c r="D67" s="5" t="str">
@@ -10690,10 +10694,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N1048576"/>
+      <selection activeCell="N1" sqref="D1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10757,42 +10761,42 @@
         <v>116700</v>
       </c>
       <c r="F2" s="28">
-        <f t="shared" ref="F2:N2" si="0">P2*1000</f>
+        <f>P2*1000</f>
         <v>65400.000000000007</v>
       </c>
       <c r="G2" s="28">
-        <f t="shared" si="0"/>
+        <f>Q2*1000</f>
         <v>77800</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" si="0"/>
+        <f>R2*1000</f>
         <v>78200</v>
       </c>
       <c r="I2" s="28">
-        <f t="shared" si="0"/>
+        <f>S2*1000</f>
         <v>81500</v>
       </c>
       <c r="J2" s="28">
-        <f t="shared" si="0"/>
+        <f>T2*1000</f>
         <v>108200</v>
       </c>
       <c r="K2" s="28">
-        <f t="shared" si="0"/>
+        <f>U2*1000</f>
         <v>97100</v>
       </c>
       <c r="L2" s="28">
-        <f t="shared" si="0"/>
+        <f>V2*1000</f>
         <v>61000</v>
       </c>
       <c r="M2" s="28">
-        <f t="shared" si="0"/>
+        <f>W2*1000</f>
         <v>94200</v>
       </c>
       <c r="N2" s="28">
-        <f t="shared" si="0"/>
+        <f>X2*1000</f>
         <v>70900</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="43">
         <v>116.7</v>
       </c>
       <c r="P2" s="28">
@@ -10832,7 +10836,7 @@
         <v>Центральный федеральный округ</v>
       </c>
       <c r="C3" s="39" t="b">
-        <f t="shared" ref="C3:C45" si="1">B3=A3</f>
+        <f t="shared" ref="C3:C45" si="0">B3=A3</f>
         <v>1</v>
       </c>
       <c r="D3" s="5" t="str">
@@ -10879,7 +10883,7 @@
         <v>Белгородская область</v>
       </c>
       <c r="C4" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4" s="40" t="str">
@@ -10926,7 +10930,7 @@
         <v>Брянская область</v>
       </c>
       <c r="C5" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D5" s="40" t="str">
@@ -10973,7 +10977,7 @@
         <v>Владимирская область</v>
       </c>
       <c r="C6" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6" s="40" t="str">
@@ -11020,7 +11024,7 @@
         <v>Воронежская область</v>
       </c>
       <c r="C7" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="40" t="str">
@@ -11067,7 +11071,7 @@
         <v>Ивановская область</v>
       </c>
       <c r="C8" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8" s="40" t="str">
@@ -11114,7 +11118,7 @@
         <v>Калужская область</v>
       </c>
       <c r="C9" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="40" t="str">
@@ -11161,7 +11165,7 @@
         <v>Костромская область</v>
       </c>
       <c r="C10" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="40" t="str">
@@ -11208,7 +11212,7 @@
         <v>Курская область</v>
       </c>
       <c r="C11" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" s="40" t="str">
@@ -11255,7 +11259,7 @@
         <v>Липецкая область</v>
       </c>
       <c r="C12" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D12" s="40" t="str">
@@ -11302,7 +11306,7 @@
         <v>Московская область</v>
       </c>
       <c r="C13" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D13" s="40" t="str">
@@ -11349,7 +11353,7 @@
         <v>Орловская область</v>
       </c>
       <c r="C14" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14" s="40" t="str">
@@ -11396,7 +11400,7 @@
         <v>Рязанская область</v>
       </c>
       <c r="C15" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15" s="40" t="str">
@@ -11443,7 +11447,7 @@
         <v>Смоленская область</v>
       </c>
       <c r="C16" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D16" s="40" t="str">
@@ -11490,7 +11494,7 @@
         <v>Тамбовская область</v>
       </c>
       <c r="C17" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" s="40" t="str">
@@ -11537,7 +11541,7 @@
         <v>Тверская область</v>
       </c>
       <c r="C18" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="40" t="str">
@@ -11584,7 +11588,7 @@
         <v>Тульская область</v>
       </c>
       <c r="C19" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D19" s="40" t="str">
@@ -11631,7 +11635,7 @@
         <v>Ярославская область</v>
       </c>
       <c r="C20" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D20" s="40" t="str">
@@ -11678,7 +11682,7 @@
         <v>г. Москва</v>
       </c>
       <c r="C21" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D21" s="40" t="str">
@@ -11707,7 +11711,7 @@
         <v>Северо-Западный федеральный округ</v>
       </c>
       <c r="C22" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D22" s="40" t="str">
@@ -11754,7 +11758,7 @@
         <v>Республика Карелия</v>
       </c>
       <c r="C23" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D23" s="40" t="str">
@@ -11801,7 +11805,7 @@
         <v>Республика Коми</v>
       </c>
       <c r="C24" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D24" s="40" t="str">
@@ -11848,7 +11852,7 @@
         <v>Архангельская область</v>
       </c>
       <c r="C25" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D25" s="40" t="str">
@@ -11895,7 +11899,7 @@
         <v>Вологодская область</v>
       </c>
       <c r="C26" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D26" s="40" t="str">
@@ -11942,7 +11946,7 @@
         <v>Калининградская область</v>
       </c>
       <c r="C27" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D27" s="40" t="str">
@@ -11989,7 +11993,7 @@
         <v>Ленинградская область</v>
       </c>
       <c r="C28" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D28" s="40" t="str">
@@ -12036,7 +12040,7 @@
         <v>Новгородская область</v>
       </c>
       <c r="C29" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D29" s="40" t="str">
@@ -12083,7 +12087,7 @@
         <v>Псковская область</v>
       </c>
       <c r="C30" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D30" s="40" t="str">
@@ -12130,7 +12134,7 @@
         <v>Южный федеральный округ</v>
       </c>
       <c r="C31" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D31" s="40" t="str">
@@ -12177,7 +12181,7 @@
         <v>Республика Адыгея</v>
       </c>
       <c r="C32" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D32" s="40" t="str">
@@ -12224,7 +12228,7 @@
         <v>Республика Калмыкия</v>
       </c>
       <c r="C33" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D33" s="40" t="str">
@@ -12271,7 +12275,7 @@
         <v>Краснодарский край</v>
       </c>
       <c r="C34" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D34" s="40" t="str">
@@ -12318,7 +12322,7 @@
         <v>Астраханская область</v>
       </c>
       <c r="C35" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D35" s="40" t="str">
@@ -12365,7 +12369,7 @@
         <v>Волгоградская область</v>
       </c>
       <c r="C36" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D36" s="40" t="str">
@@ -12412,7 +12416,7 @@
         <v>Ростовская область</v>
       </c>
       <c r="C37" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D37" s="40" t="str">
@@ -12459,7 +12463,7 @@
         <v>Северо-Кавказский федеральный округ</v>
       </c>
       <c r="C38" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D38" s="40" t="str">
@@ -12506,7 +12510,7 @@
         <v>Республика Дагестан</v>
       </c>
       <c r="C39" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D39" s="40" t="str">
@@ -12553,7 +12557,7 @@
         <v>Республика Ингушетия</v>
       </c>
       <c r="C40" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D40" s="40" t="str">
@@ -12600,7 +12604,7 @@
         <v>Кабардино-Балкарская Республика</v>
       </c>
       <c r="C41" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D41" s="40" t="str">
@@ -12647,7 +12651,7 @@
         <v>Карачаево-Черкесская Республика</v>
       </c>
       <c r="C42" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D42" s="40" t="str">
@@ -12694,7 +12698,7 @@
         <v>Республика Северная Осетия - Алания</v>
       </c>
       <c r="C43" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D43" s="40" t="str">
@@ -12741,7 +12745,7 @@
         <v>Чеченская Республика</v>
       </c>
       <c r="C44" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D44" s="40" t="str">
@@ -12784,7 +12788,7 @@
         <v>Ставропольский край</v>
       </c>
       <c r="C45" s="39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D45" s="40" t="str">
@@ -12820,6 +12824,1886 @@
       </c>
       <c r="N45" s="35">
         <v>4839.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="39" t="str">
+        <f>VLOOKUP(A46,Лист2!A:B,1)</f>
+        <v>Приволжский федеральный округ</v>
+      </c>
+      <c r="C46" s="39" t="b">
+        <f t="shared" ref="C46:C85" si="1">B46=A46</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="40" t="str">
+        <f>VLOOKUP(A46,Лист2!A:B,2)</f>
+        <v>RU-FOPV</v>
+      </c>
+      <c r="E46" s="42">
+        <v>33776.6</v>
+      </c>
+      <c r="F46" s="42">
+        <v>19394.2</v>
+      </c>
+      <c r="G46" s="42">
+        <v>19151.8</v>
+      </c>
+      <c r="H46" s="42">
+        <v>20882.3</v>
+      </c>
+      <c r="I46" s="42">
+        <v>22322.7</v>
+      </c>
+      <c r="J46" s="42">
+        <v>27151.5</v>
+      </c>
+      <c r="K46" s="42">
+        <v>21732.3</v>
+      </c>
+      <c r="L46" s="42">
+        <v>6550.4</v>
+      </c>
+      <c r="M46" s="42">
+        <v>21241.7</v>
+      </c>
+      <c r="N46" s="42">
+        <v>14529.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="39" t="str">
+        <f>VLOOKUP(A47,Лист2!A:B,1)</f>
+        <v>Республика Башкортостан</v>
+      </c>
+      <c r="C47" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="40" t="str">
+        <f>VLOOKUP(A47,Лист2!A:B,2)</f>
+        <v>RU-BA</v>
+      </c>
+      <c r="E47" s="31">
+        <v>4727.6000000000004</v>
+      </c>
+      <c r="F47" s="31">
+        <v>2520.6999999999998</v>
+      </c>
+      <c r="G47" s="31">
+        <v>2884</v>
+      </c>
+      <c r="H47" s="31">
+        <v>3883.3</v>
+      </c>
+      <c r="I47" s="31">
+        <v>4069.4</v>
+      </c>
+      <c r="J47" s="31">
+        <v>4533</v>
+      </c>
+      <c r="K47" s="31">
+        <v>2930.8</v>
+      </c>
+      <c r="L47" s="31">
+        <v>781</v>
+      </c>
+      <c r="M47" s="31">
+        <v>3002.9</v>
+      </c>
+      <c r="N47" s="31">
+        <v>1672.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="39" t="str">
+        <f>VLOOKUP(A48,Лист2!A:B,1)</f>
+        <v>Республика Марий Эл</v>
+      </c>
+      <c r="C48" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="40" t="str">
+        <f>VLOOKUP(A48,Лист2!A:B,2)</f>
+        <v>RU-ME</v>
+      </c>
+      <c r="E48" s="31">
+        <v>625.1</v>
+      </c>
+      <c r="F48" s="31">
+        <v>236.5</v>
+      </c>
+      <c r="G48" s="31">
+        <v>248.8</v>
+      </c>
+      <c r="H48" s="31">
+        <v>210.1</v>
+      </c>
+      <c r="I48" s="31">
+        <v>176.9</v>
+      </c>
+      <c r="J48" s="31">
+        <v>249.7</v>
+      </c>
+      <c r="K48" s="31">
+        <v>279.8</v>
+      </c>
+      <c r="L48" s="31">
+        <v>101.9</v>
+      </c>
+      <c r="M48" s="31">
+        <v>289.89999999999998</v>
+      </c>
+      <c r="N48" s="31">
+        <v>184.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="39" t="str">
+        <f>VLOOKUP(A49,Лист2!A:B,1)</f>
+        <v>Республика Мордовия</v>
+      </c>
+      <c r="C49" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="40" t="str">
+        <f>VLOOKUP(A49,Лист2!A:B,2)</f>
+        <v>RU-MO</v>
+      </c>
+      <c r="E49" s="31">
+        <v>978.9</v>
+      </c>
+      <c r="F49" s="31">
+        <v>620.6</v>
+      </c>
+      <c r="G49" s="31">
+        <v>768</v>
+      </c>
+      <c r="H49" s="31">
+        <v>945.7</v>
+      </c>
+      <c r="I49" s="31">
+        <v>908.9</v>
+      </c>
+      <c r="J49" s="31">
+        <v>1167.9000000000001</v>
+      </c>
+      <c r="K49" s="31">
+        <v>1308.4000000000001</v>
+      </c>
+      <c r="L49" s="31">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="M49" s="31">
+        <v>1034.5999999999999</v>
+      </c>
+      <c r="N49" s="31">
+        <v>797.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="39" t="str">
+        <f>VLOOKUP(A50,Лист2!A:B,1)</f>
+        <v>Республика Татарстан</v>
+      </c>
+      <c r="C50" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="40" t="str">
+        <f>VLOOKUP(A50,Лист2!A:B,2)</f>
+        <v>RU-TA</v>
+      </c>
+      <c r="E50" s="31">
+        <v>3660.5</v>
+      </c>
+      <c r="F50" s="31">
+        <v>3288.3</v>
+      </c>
+      <c r="G50" s="31">
+        <v>4137</v>
+      </c>
+      <c r="H50" s="31">
+        <v>4164.5</v>
+      </c>
+      <c r="I50" s="31">
+        <v>4745.2</v>
+      </c>
+      <c r="J50" s="31">
+        <v>5742.5</v>
+      </c>
+      <c r="K50" s="31">
+        <v>4441.8</v>
+      </c>
+      <c r="L50" s="31">
+        <v>661.1</v>
+      </c>
+      <c r="M50" s="31">
+        <v>4867.7</v>
+      </c>
+      <c r="N50" s="31">
+        <v>2990.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="39" t="str">
+        <f>VLOOKUP(A51,Лист2!A:B,1)</f>
+        <v>Удмуртская Республика</v>
+      </c>
+      <c r="C51" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="40" t="str">
+        <f>VLOOKUP(A51,Лист2!A:B,2)</f>
+        <v>RU-UD</v>
+      </c>
+      <c r="E51" s="31">
+        <v>1112.0999999999999</v>
+      </c>
+      <c r="F51" s="31">
+        <v>596.1</v>
+      </c>
+      <c r="G51" s="31">
+        <v>569.70000000000005</v>
+      </c>
+      <c r="H51" s="31">
+        <v>567.20000000000005</v>
+      </c>
+      <c r="I51" s="31">
+        <v>556.4</v>
+      </c>
+      <c r="J51" s="31">
+        <v>646.1</v>
+      </c>
+      <c r="K51" s="31">
+        <v>654.70000000000005</v>
+      </c>
+      <c r="L51" s="31">
+        <v>312.89999999999998</v>
+      </c>
+      <c r="M51" s="31">
+        <v>640.79999999999995</v>
+      </c>
+      <c r="N51" s="31">
+        <v>482.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="39" t="str">
+        <f>VLOOKUP(A52,Лист2!A:B,1)</f>
+        <v>Чувашская Республика</v>
+      </c>
+      <c r="C52" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="40" t="str">
+        <f>VLOOKUP(A52,Лист2!A:B,2)</f>
+        <v>RU-CU</v>
+      </c>
+      <c r="E52" s="31">
+        <v>946.9</v>
+      </c>
+      <c r="F52" s="31">
+        <v>500.8</v>
+      </c>
+      <c r="G52" s="31">
+        <v>391</v>
+      </c>
+      <c r="H52" s="31">
+        <v>418.6</v>
+      </c>
+      <c r="I52" s="31">
+        <v>362.4</v>
+      </c>
+      <c r="J52" s="31">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="K52" s="31">
+        <v>573</v>
+      </c>
+      <c r="L52" s="31">
+        <v>127.7</v>
+      </c>
+      <c r="M52" s="31">
+        <v>555.4</v>
+      </c>
+      <c r="N52" s="31">
+        <v>411.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="39" t="str">
+        <f>VLOOKUP(A53,Лист2!A:B,1)</f>
+        <v>Пермский край</v>
+      </c>
+      <c r="C53" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="40" t="str">
+        <f>VLOOKUP(A53,Лист2!A:B,2)</f>
+        <v>RU-PER</v>
+      </c>
+      <c r="E53" s="31">
+        <v>1129.4000000000001</v>
+      </c>
+      <c r="F53" s="31">
+        <v>563.70000000000005</v>
+      </c>
+      <c r="G53" s="31">
+        <v>465.8</v>
+      </c>
+      <c r="H53" s="31">
+        <v>443.8</v>
+      </c>
+      <c r="I53" s="31">
+        <v>398.4</v>
+      </c>
+      <c r="J53" s="31">
+        <v>436.4</v>
+      </c>
+      <c r="K53" s="31">
+        <v>450.7</v>
+      </c>
+      <c r="L53" s="31">
+        <v>330.8</v>
+      </c>
+      <c r="M53" s="31">
+        <v>444.2</v>
+      </c>
+      <c r="N53" s="31">
+        <v>321.60000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="39" t="str">
+        <f>VLOOKUP(A54,Лист2!A:B,1)</f>
+        <v>Кировская область</v>
+      </c>
+      <c r="C54" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="40" t="str">
+        <f>VLOOKUP(A54,Лист2!A:B,2)</f>
+        <v>RU-KIR</v>
+      </c>
+      <c r="E54" s="31">
+        <v>1680.2</v>
+      </c>
+      <c r="F54" s="31">
+        <v>776.3</v>
+      </c>
+      <c r="G54" s="31">
+        <v>659.1</v>
+      </c>
+      <c r="H54" s="31">
+        <v>566.6</v>
+      </c>
+      <c r="I54" s="31">
+        <v>491.5</v>
+      </c>
+      <c r="J54" s="31">
+        <v>607</v>
+      </c>
+      <c r="K54" s="31">
+        <v>706.2</v>
+      </c>
+      <c r="L54" s="31">
+        <v>460.2</v>
+      </c>
+      <c r="M54" s="31">
+        <v>735.7</v>
+      </c>
+      <c r="N54" s="31">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="39" t="str">
+        <f>VLOOKUP(A55,Лист2!A:B,1)</f>
+        <v>Нижегородская область</v>
+      </c>
+      <c r="C55" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="40" t="str">
+        <f>VLOOKUP(A55,Лист2!A:B,2)</f>
+        <v>RU-NIZ</v>
+      </c>
+      <c r="E55" s="31">
+        <v>1741.8</v>
+      </c>
+      <c r="F55" s="31">
+        <v>1008</v>
+      </c>
+      <c r="G55" s="31">
+        <v>1012.8</v>
+      </c>
+      <c r="H55" s="31">
+        <v>1165.9000000000001</v>
+      </c>
+      <c r="I55" s="31">
+        <v>1042.5</v>
+      </c>
+      <c r="J55" s="31">
+        <v>1299.3</v>
+      </c>
+      <c r="K55" s="31">
+        <v>1432.4</v>
+      </c>
+      <c r="L55" s="31">
+        <v>541.5</v>
+      </c>
+      <c r="M55" s="31">
+        <v>1301.8</v>
+      </c>
+      <c r="N55" s="31">
+        <v>933.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="39" t="str">
+        <f>VLOOKUP(A56,Лист2!A:B,1)</f>
+        <v>Оренбургская область</v>
+      </c>
+      <c r="C56" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="40" t="str">
+        <f>VLOOKUP(A56,Лист2!A:B,2)</f>
+        <v>RU-ORE</v>
+      </c>
+      <c r="E56" s="31">
+        <v>5581.5</v>
+      </c>
+      <c r="F56" s="31">
+        <v>3141.7</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1811.4</v>
+      </c>
+      <c r="H56" s="31">
+        <v>2019.3</v>
+      </c>
+      <c r="I56" s="31">
+        <v>3155</v>
+      </c>
+      <c r="J56" s="31">
+        <v>3717.8</v>
+      </c>
+      <c r="K56" s="31">
+        <v>2446.3000000000002</v>
+      </c>
+      <c r="L56" s="31">
+        <v>739.6</v>
+      </c>
+      <c r="M56" s="31">
+        <v>2917.8</v>
+      </c>
+      <c r="N56" s="31">
+        <v>1470.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="39" t="str">
+        <f>VLOOKUP(A57,Лист2!A:B,1)</f>
+        <v>Пензенская область</v>
+      </c>
+      <c r="C57" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="40" t="str">
+        <f>VLOOKUP(A57,Лист2!A:B,2)</f>
+        <v>RU-PNZ</v>
+      </c>
+      <c r="E57" s="31">
+        <v>1841.2</v>
+      </c>
+      <c r="F57" s="31">
+        <v>820.2</v>
+      </c>
+      <c r="G57" s="31">
+        <v>992.5</v>
+      </c>
+      <c r="H57" s="31">
+        <v>1107.9000000000001</v>
+      </c>
+      <c r="I57" s="31">
+        <v>932.1</v>
+      </c>
+      <c r="J57" s="31">
+        <v>1422.3</v>
+      </c>
+      <c r="K57" s="31">
+        <v>1461.4</v>
+      </c>
+      <c r="L57" s="31">
+        <v>407.3</v>
+      </c>
+      <c r="M57" s="31">
+        <v>874.7</v>
+      </c>
+      <c r="N57" s="31">
+        <v>749.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="39" t="str">
+        <f>VLOOKUP(A58,Лист2!A:B,1)</f>
+        <v>Самарская область</v>
+      </c>
+      <c r="C58" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="40" t="str">
+        <f>VLOOKUP(A58,Лист2!A:B,2)</f>
+        <v>RU-SAM</v>
+      </c>
+      <c r="E58" s="31">
+        <v>3025.8</v>
+      </c>
+      <c r="F58" s="31">
+        <v>1529.3</v>
+      </c>
+      <c r="G58" s="31">
+        <v>1101.8</v>
+      </c>
+      <c r="H58" s="31">
+        <v>1251.5</v>
+      </c>
+      <c r="I58" s="31">
+        <v>1402.1</v>
+      </c>
+      <c r="J58" s="31">
+        <v>1824.4</v>
+      </c>
+      <c r="K58" s="31">
+        <v>1128</v>
+      </c>
+      <c r="L58" s="31">
+        <v>489.2</v>
+      </c>
+      <c r="M58" s="31">
+        <v>1212.8</v>
+      </c>
+      <c r="N58" s="31">
+        <v>1106.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="39" t="str">
+        <f>VLOOKUP(A59,Лист2!A:B,1)</f>
+        <v>Саратовская область</v>
+      </c>
+      <c r="C59" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="40" t="str">
+        <f>VLOOKUP(A59,Лист2!A:B,2)</f>
+        <v>RU-SAR</v>
+      </c>
+      <c r="E59" s="31">
+        <v>4783.2</v>
+      </c>
+      <c r="F59" s="31">
+        <v>2863.6</v>
+      </c>
+      <c r="G59" s="31">
+        <v>3452.7</v>
+      </c>
+      <c r="H59" s="31">
+        <v>3411.3</v>
+      </c>
+      <c r="I59" s="31">
+        <v>3315.9</v>
+      </c>
+      <c r="J59" s="31">
+        <v>3853.5</v>
+      </c>
+      <c r="K59" s="31">
+        <v>2774.6</v>
+      </c>
+      <c r="L59" s="31">
+        <v>1032.3</v>
+      </c>
+      <c r="M59" s="31">
+        <v>2065.8000000000002</v>
+      </c>
+      <c r="N59" s="31">
+        <v>2203.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="39" t="str">
+        <f>VLOOKUP(A60,Лист2!A:B,1)</f>
+        <v>Ульяновская область</v>
+      </c>
+      <c r="C60" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="40" t="str">
+        <f>VLOOKUP(A60,Лист2!A:B,2)</f>
+        <v>RU-ULY</v>
+      </c>
+      <c r="E60" s="31">
+        <v>1942.3</v>
+      </c>
+      <c r="F60" s="31">
+        <v>928.5</v>
+      </c>
+      <c r="G60" s="31">
+        <v>657.2</v>
+      </c>
+      <c r="H60" s="31">
+        <v>726.6</v>
+      </c>
+      <c r="I60" s="31">
+        <v>765.9</v>
+      </c>
+      <c r="J60" s="31">
+        <v>1128.7</v>
+      </c>
+      <c r="K60" s="31">
+        <v>1144.3</v>
+      </c>
+      <c r="L60" s="31">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="M60" s="31">
+        <v>1297.7</v>
+      </c>
+      <c r="N60" s="31">
+        <v>651.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="39" t="str">
+        <f>VLOOKUP(A61,Лист2!A:B,1)</f>
+        <v>Уральский федеральный округ</v>
+      </c>
+      <c r="C61" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="40" t="str">
+        <f>VLOOKUP(A61,Лист2!A:B,2)</f>
+        <v>RU-FOUR</v>
+      </c>
+      <c r="E61" s="37">
+        <v>7579.2</v>
+      </c>
+      <c r="F61" s="37">
+        <v>3907.7</v>
+      </c>
+      <c r="G61" s="37">
+        <v>4809.5</v>
+      </c>
+      <c r="H61" s="37">
+        <v>5615.1</v>
+      </c>
+      <c r="I61" s="37">
+        <v>5257.3</v>
+      </c>
+      <c r="J61" s="37">
+        <v>5151.8</v>
+      </c>
+      <c r="K61" s="37">
+        <v>5327.4</v>
+      </c>
+      <c r="L61" s="37">
+        <v>3339</v>
+      </c>
+      <c r="M61" s="37">
+        <v>7302.4</v>
+      </c>
+      <c r="N61" s="37">
+        <v>3411.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="39" t="str">
+        <f>VLOOKUP(A62,Лист2!A:B,1)</f>
+        <v>Курганская область</v>
+      </c>
+      <c r="C62" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="40" t="str">
+        <f>VLOOKUP(A62,Лист2!A:B,2)</f>
+        <v>RU-KGN</v>
+      </c>
+      <c r="E62" s="31">
+        <v>2520.6999999999998</v>
+      </c>
+      <c r="F62" s="31">
+        <v>1084.5</v>
+      </c>
+      <c r="G62" s="31">
+        <v>1277.2</v>
+      </c>
+      <c r="H62" s="31">
+        <v>1426.3</v>
+      </c>
+      <c r="I62" s="31">
+        <v>1521.9</v>
+      </c>
+      <c r="J62" s="31">
+        <v>1595.3</v>
+      </c>
+      <c r="K62" s="31">
+        <v>1672.8</v>
+      </c>
+      <c r="L62" s="31">
+        <v>866.1</v>
+      </c>
+      <c r="M62" s="31">
+        <v>2401.5</v>
+      </c>
+      <c r="N62" s="31">
+        <v>933.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="39" t="str">
+        <f>VLOOKUP(A63,Лист2!A:B,1)</f>
+        <v>Свердловская область</v>
+      </c>
+      <c r="C63" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="40" t="str">
+        <f>VLOOKUP(A63,Лист2!A:B,2)</f>
+        <v>RU-SVE</v>
+      </c>
+      <c r="E63" s="31">
+        <v>1088.3</v>
+      </c>
+      <c r="F63" s="31">
+        <v>604.29999999999995</v>
+      </c>
+      <c r="G63" s="31">
+        <v>726.5</v>
+      </c>
+      <c r="H63" s="31">
+        <v>722.8</v>
+      </c>
+      <c r="I63" s="31">
+        <v>585.70000000000005</v>
+      </c>
+      <c r="J63" s="31">
+        <v>630.20000000000005</v>
+      </c>
+      <c r="K63" s="31">
+        <v>676</v>
+      </c>
+      <c r="L63" s="31">
+        <v>549.20000000000005</v>
+      </c>
+      <c r="M63" s="31">
+        <v>762.5</v>
+      </c>
+      <c r="N63" s="31">
+        <v>521.20000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="39" t="str">
+        <f>VLOOKUP(A64,Лист2!A:B,1)</f>
+        <v>Тюменская область</v>
+      </c>
+      <c r="C64" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="40" t="str">
+        <f>VLOOKUP(A64,Лист2!A:B,2)</f>
+        <v>RU-TYU</v>
+      </c>
+      <c r="E64" s="31">
+        <v>1517.6</v>
+      </c>
+      <c r="F64" s="31">
+        <v>1168.0999999999999</v>
+      </c>
+      <c r="G64" s="31">
+        <v>1329.3</v>
+      </c>
+      <c r="H64" s="31">
+        <v>1345.5</v>
+      </c>
+      <c r="I64" s="31">
+        <v>1264.0999999999999</v>
+      </c>
+      <c r="J64" s="31">
+        <v>1238.4000000000001</v>
+      </c>
+      <c r="K64" s="31">
+        <v>1525.1</v>
+      </c>
+      <c r="L64" s="31">
+        <v>1232</v>
+      </c>
+      <c r="M64" s="31">
+        <v>1919.5</v>
+      </c>
+      <c r="N64" s="31">
+        <v>1268.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="39" t="str">
+        <f>VLOOKUP(A65,Лист2!A:B,1)</f>
+        <v>Челябинская область</v>
+      </c>
+      <c r="C65" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="40" t="str">
+        <f>VLOOKUP(A65,Лист2!A:B,2)</f>
+        <v>RU-CHE</v>
+      </c>
+      <c r="E65" s="31">
+        <v>2452.6999999999998</v>
+      </c>
+      <c r="F65" s="31">
+        <v>1050.7</v>
+      </c>
+      <c r="G65" s="31">
+        <v>1476.5</v>
+      </c>
+      <c r="H65" s="31">
+        <v>2120.5</v>
+      </c>
+      <c r="I65" s="31">
+        <v>1885.6</v>
+      </c>
+      <c r="J65" s="31">
+        <v>1688</v>
+      </c>
+      <c r="K65" s="31">
+        <v>1453.5</v>
+      </c>
+      <c r="L65" s="31">
+        <v>691.8</v>
+      </c>
+      <c r="M65" s="31">
+        <v>2218.9</v>
+      </c>
+      <c r="N65" s="31">
+        <v>688.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="39" t="str">
+        <f>VLOOKUP(A66,Лист2!A:B,1)</f>
+        <v>Сибирский федеральный округ</v>
+      </c>
+      <c r="C66" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="40" t="str">
+        <f>VLOOKUP(A66,Лист2!A:B,2)</f>
+        <v>RU-FOSI</v>
+      </c>
+      <c r="E66" s="38">
+        <v>14449.4</v>
+      </c>
+      <c r="F66" s="38">
+        <v>12838</v>
+      </c>
+      <c r="G66" s="38">
+        <v>11647.8</v>
+      </c>
+      <c r="H66" s="38">
+        <v>11980.1</v>
+      </c>
+      <c r="I66" s="38">
+        <v>15005</v>
+      </c>
+      <c r="J66" s="38">
+        <v>13921.2</v>
+      </c>
+      <c r="K66" s="38">
+        <v>18346.900000000001</v>
+      </c>
+      <c r="L66" s="38">
+        <v>13354.5</v>
+      </c>
+      <c r="M66" s="38">
+        <v>14602</v>
+      </c>
+      <c r="N66" s="38">
+        <v>8996.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="39" t="str">
+        <f>VLOOKUP(A67,Лист2!A:B,1)</f>
+        <v>Республика Алтай</v>
+      </c>
+      <c r="C67" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="40" t="str">
+        <f>VLOOKUP(A67,Лист2!A:B,2)</f>
+        <v>RU-AL</v>
+      </c>
+      <c r="E67" s="31">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F67" s="31">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G67" s="31">
+        <v>19.5</v>
+      </c>
+      <c r="H67" s="31">
+        <v>12.6</v>
+      </c>
+      <c r="I67" s="31">
+        <v>22.4</v>
+      </c>
+      <c r="J67" s="31">
+        <v>8</v>
+      </c>
+      <c r="K67" s="31">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L67" s="31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M67" s="31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N67" s="31">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="39" t="str">
+        <f>VLOOKUP(A68,Лист2!A:B,1)</f>
+        <v>Республика Бурятия</v>
+      </c>
+      <c r="C68" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="40" t="str">
+        <f>VLOOKUP(A68,Лист2!A:B,2)</f>
+        <v>RU-BU</v>
+      </c>
+      <c r="E68" s="31">
+        <v>450.8</v>
+      </c>
+      <c r="F68" s="31">
+        <v>179</v>
+      </c>
+      <c r="G68" s="31">
+        <v>82.6</v>
+      </c>
+      <c r="H68" s="31">
+        <v>90.9</v>
+      </c>
+      <c r="I68" s="31">
+        <v>81.5</v>
+      </c>
+      <c r="J68" s="31">
+        <v>100.8</v>
+      </c>
+      <c r="K68" s="31">
+        <v>79.3</v>
+      </c>
+      <c r="L68" s="31">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="M68" s="31">
+        <v>97.6</v>
+      </c>
+      <c r="N68" s="31">
+        <v>125.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="39" t="str">
+        <f>VLOOKUP(A69,Лист2!A:B,1)</f>
+        <v>Республика Тыва</v>
+      </c>
+      <c r="C69" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="40" t="str">
+        <f>VLOOKUP(A69,Лист2!A:B,2)</f>
+        <v>RU-TY</v>
+      </c>
+      <c r="E69" s="31">
+        <v>59</v>
+      </c>
+      <c r="F69" s="31">
+        <v>24.7</v>
+      </c>
+      <c r="G69" s="31">
+        <v>14.5</v>
+      </c>
+      <c r="H69" s="31">
+        <v>11.8</v>
+      </c>
+      <c r="I69" s="31">
+        <v>7</v>
+      </c>
+      <c r="J69" s="31">
+        <v>12.4</v>
+      </c>
+      <c r="K69" s="31">
+        <v>13.4</v>
+      </c>
+      <c r="L69" s="31">
+        <v>17.7</v>
+      </c>
+      <c r="M69" s="31">
+        <v>19.5</v>
+      </c>
+      <c r="N69" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="39" t="str">
+        <f>VLOOKUP(A70,Лист2!A:B,1)</f>
+        <v>Республика Хакасия</v>
+      </c>
+      <c r="C70" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="40" t="str">
+        <f>VLOOKUP(A70,Лист2!A:B,2)</f>
+        <v>RU-KK</v>
+      </c>
+      <c r="E70" s="31">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="F70" s="31">
+        <v>109.8</v>
+      </c>
+      <c r="G70" s="31">
+        <v>39.9</v>
+      </c>
+      <c r="H70" s="31">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I70" s="31">
+        <v>80.3</v>
+      </c>
+      <c r="J70" s="31">
+        <v>84.6</v>
+      </c>
+      <c r="K70" s="31">
+        <v>111.8</v>
+      </c>
+      <c r="L70" s="31">
+        <v>128.9</v>
+      </c>
+      <c r="M70" s="31">
+        <v>173.9</v>
+      </c>
+      <c r="N70" s="31">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="39" t="str">
+        <f>VLOOKUP(A71,Лист2!A:B,1)</f>
+        <v>Алтайский край</v>
+      </c>
+      <c r="C71" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="40" t="str">
+        <f>VLOOKUP(A71,Лист2!A:B,2)</f>
+        <v>RU-ALT</v>
+      </c>
+      <c r="E71" s="31">
+        <v>3246.3</v>
+      </c>
+      <c r="F71" s="31">
+        <v>4408.1000000000004</v>
+      </c>
+      <c r="G71" s="31">
+        <v>2952.6</v>
+      </c>
+      <c r="H71" s="31">
+        <v>3519.5</v>
+      </c>
+      <c r="I71" s="31">
+        <v>4700.5</v>
+      </c>
+      <c r="J71" s="31">
+        <v>3857.5</v>
+      </c>
+      <c r="K71" s="31">
+        <v>5627.8</v>
+      </c>
+      <c r="L71" s="31">
+        <v>4240.8</v>
+      </c>
+      <c r="M71" s="31">
+        <v>3919.5</v>
+      </c>
+      <c r="N71" s="31">
+        <v>2516.8000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="39" t="str">
+        <f>VLOOKUP(A72,Лист2!A:B,1)</f>
+        <v>Забайкальский край</v>
+      </c>
+      <c r="C72" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="40" t="str">
+        <f>VLOOKUP(A72,Лист2!A:B,2)</f>
+        <v>RU-ZAB</v>
+      </c>
+      <c r="E72" s="31">
+        <v>988.6</v>
+      </c>
+      <c r="F72" s="31">
+        <v>195.6</v>
+      </c>
+      <c r="G72" s="31">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="H72" s="31">
+        <v>185.4</v>
+      </c>
+      <c r="I72" s="31">
+        <v>168.2</v>
+      </c>
+      <c r="J72" s="31">
+        <v>212.3</v>
+      </c>
+      <c r="K72" s="31">
+        <v>268.5</v>
+      </c>
+      <c r="L72" s="31">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="M72" s="31">
+        <v>114</v>
+      </c>
+      <c r="N72" s="31">
+        <v>213.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="39" t="str">
+        <f>VLOOKUP(A73,Лист2!A:B,1)</f>
+        <v>Красноярский край</v>
+      </c>
+      <c r="C73" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="40" t="str">
+        <f>VLOOKUP(A73,Лист2!A:B,2)</f>
+        <v>RU-KYA</v>
+      </c>
+      <c r="E73" s="31">
+        <v>2669.6</v>
+      </c>
+      <c r="F73" s="31">
+        <v>1747.5</v>
+      </c>
+      <c r="G73" s="31">
+        <v>1590.5</v>
+      </c>
+      <c r="H73" s="31">
+        <v>1479</v>
+      </c>
+      <c r="I73" s="31">
+        <v>1811.1</v>
+      </c>
+      <c r="J73" s="31">
+        <v>2154.6</v>
+      </c>
+      <c r="K73" s="31">
+        <v>2377.9</v>
+      </c>
+      <c r="L73" s="31">
+        <v>2070.9</v>
+      </c>
+      <c r="M73" s="31">
+        <v>2359.1999999999998</v>
+      </c>
+      <c r="N73" s="31">
+        <v>1786.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="39" t="str">
+        <f>VLOOKUP(A74,Лист2!A:B,1)</f>
+        <v>Иркутская область</v>
+      </c>
+      <c r="C74" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="40" t="str">
+        <f>VLOOKUP(A74,Лист2!A:B,2)</f>
+        <v>RU-IRK</v>
+      </c>
+      <c r="E74" s="31">
+        <v>744.8</v>
+      </c>
+      <c r="F74" s="31">
+        <v>529.4</v>
+      </c>
+      <c r="G74" s="31">
+        <v>645</v>
+      </c>
+      <c r="H74" s="31">
+        <v>572.29999999999995</v>
+      </c>
+      <c r="I74" s="31">
+        <v>754.1</v>
+      </c>
+      <c r="J74" s="31">
+        <v>757.8</v>
+      </c>
+      <c r="K74" s="31">
+        <v>687.8</v>
+      </c>
+      <c r="L74" s="31">
+        <v>554.29999999999995</v>
+      </c>
+      <c r="M74" s="31">
+        <v>573.4</v>
+      </c>
+      <c r="N74" s="31">
+        <v>629.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="39" t="str">
+        <f>VLOOKUP(A75,Лист2!A:B,1)</f>
+        <v>Кемеровская область</v>
+      </c>
+      <c r="C75" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="40" t="str">
+        <f>VLOOKUP(A75,Лист2!A:B,2)</f>
+        <v>RU-KEM</v>
+      </c>
+      <c r="E75" s="31">
+        <v>1058.8</v>
+      </c>
+      <c r="F75" s="31">
+        <v>858.8</v>
+      </c>
+      <c r="G75" s="31">
+        <v>1041.5</v>
+      </c>
+      <c r="H75" s="31">
+        <v>1110</v>
+      </c>
+      <c r="I75" s="31">
+        <v>1455.3</v>
+      </c>
+      <c r="J75" s="31">
+        <v>1467.5</v>
+      </c>
+      <c r="K75" s="31">
+        <v>1570.9</v>
+      </c>
+      <c r="L75" s="31">
+        <v>1179.5999999999999</v>
+      </c>
+      <c r="M75" s="31">
+        <v>1136.2</v>
+      </c>
+      <c r="N75" s="31">
+        <v>491.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="39" t="str">
+        <f>VLOOKUP(A76,Лист2!A:B,1)</f>
+        <v>Новосибирская область</v>
+      </c>
+      <c r="C76" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="40" t="str">
+        <f>VLOOKUP(A76,Лист2!A:B,2)</f>
+        <v>RU-NVS</v>
+      </c>
+      <c r="E76" s="31">
+        <v>2266.1</v>
+      </c>
+      <c r="F76" s="31">
+        <v>2660.4</v>
+      </c>
+      <c r="G76" s="31">
+        <v>1798.8</v>
+      </c>
+      <c r="H76" s="31">
+        <v>1761.2</v>
+      </c>
+      <c r="I76" s="31">
+        <v>2502.6</v>
+      </c>
+      <c r="J76" s="31">
+        <v>2567.3000000000002</v>
+      </c>
+      <c r="K76" s="31">
+        <v>3193.2</v>
+      </c>
+      <c r="L76" s="31">
+        <v>2350.3000000000002</v>
+      </c>
+      <c r="M76" s="31">
+        <v>2503.3000000000002</v>
+      </c>
+      <c r="N76" s="31">
+        <v>1239.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="39" t="str">
+        <f>VLOOKUP(A77,Лист2!A:B,1)</f>
+        <v>Омская область</v>
+      </c>
+      <c r="C77" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="40" t="str">
+        <f>VLOOKUP(A77,Лист2!A:B,2)</f>
+        <v>RU-OMS</v>
+      </c>
+      <c r="E77" s="31">
+        <v>2272</v>
+      </c>
+      <c r="F77" s="31">
+        <v>1722.3</v>
+      </c>
+      <c r="G77" s="31">
+        <v>2851.8</v>
+      </c>
+      <c r="H77" s="31">
+        <v>2890.6</v>
+      </c>
+      <c r="I77" s="31">
+        <v>3082.1</v>
+      </c>
+      <c r="J77" s="31">
+        <v>2289.8000000000002</v>
+      </c>
+      <c r="K77" s="31">
+        <v>4002.5</v>
+      </c>
+      <c r="L77" s="31">
+        <v>2231.9</v>
+      </c>
+      <c r="M77" s="31">
+        <v>3379.2</v>
+      </c>
+      <c r="N77" s="31">
+        <v>1689.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="39" t="str">
+        <f>VLOOKUP(A78,Лист2!A:B,1)</f>
+        <v>Томская область</v>
+      </c>
+      <c r="C78" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="40" t="str">
+        <f>VLOOKUP(A78,Лист2!A:B,2)</f>
+        <v>RU-TOM</v>
+      </c>
+      <c r="E78" s="31">
+        <v>344.9</v>
+      </c>
+      <c r="F78" s="31">
+        <v>381.8</v>
+      </c>
+      <c r="G78" s="31">
+        <v>319.10000000000002</v>
+      </c>
+      <c r="H78" s="31">
+        <v>281.8</v>
+      </c>
+      <c r="I78" s="31">
+        <v>340</v>
+      </c>
+      <c r="J78" s="31">
+        <v>408.8</v>
+      </c>
+      <c r="K78" s="31">
+        <v>397.4</v>
+      </c>
+      <c r="L78" s="31">
+        <v>359.2</v>
+      </c>
+      <c r="M78" s="31">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="N78" s="31">
+        <v>146.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="39" t="str">
+        <f>VLOOKUP(A79,Лист2!A:B,1)</f>
+        <v>Дальневосточный федеральный округ</v>
+      </c>
+      <c r="C79" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="40" t="str">
+        <f>VLOOKUP(A79,Лист2!A:B,2)</f>
+        <v>RU-FODV</v>
+      </c>
+      <c r="E79" s="37">
+        <v>1312.2</v>
+      </c>
+      <c r="F79" s="37">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="G79" s="37">
+        <v>381.4</v>
+      </c>
+      <c r="H79" s="37">
+        <v>430.2</v>
+      </c>
+      <c r="I79" s="37">
+        <v>560.4</v>
+      </c>
+      <c r="J79" s="37">
+        <v>504.2</v>
+      </c>
+      <c r="K79" s="37">
+        <v>581.29999999999995</v>
+      </c>
+      <c r="L79" s="37">
+        <v>297.3</v>
+      </c>
+      <c r="M79" s="37">
+        <v>612.70000000000005</v>
+      </c>
+      <c r="N79" s="37">
+        <v>546.79999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="39" t="str">
+        <f>VLOOKUP(A80,Лист2!A:B,1)</f>
+        <v>Республика Саха (Якутия)</v>
+      </c>
+      <c r="C80" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="40" t="str">
+        <f>VLOOKUP(A80,Лист2!A:B,2)</f>
+        <v>RU-SA</v>
+      </c>
+      <c r="E80" s="31">
+        <v>25.2</v>
+      </c>
+      <c r="F80" s="31">
+        <v>27.7</v>
+      </c>
+      <c r="G80" s="31">
+        <v>14.1</v>
+      </c>
+      <c r="H80" s="31">
+        <v>12.8</v>
+      </c>
+      <c r="I80" s="31">
+        <v>12.6</v>
+      </c>
+      <c r="J80" s="31">
+        <v>6.4</v>
+      </c>
+      <c r="K80" s="31">
+        <v>7.6</v>
+      </c>
+      <c r="L80" s="31">
+        <v>10.3</v>
+      </c>
+      <c r="M80" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="N80" s="31">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="39" t="str">
+        <f>VLOOKUP(A81,Лист2!A:B,1)</f>
+        <v>Камчатский край</v>
+      </c>
+      <c r="C81" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="40" t="str">
+        <f>VLOOKUP(A81,Лист2!A:B,2)</f>
+        <v>RU-KAM</v>
+      </c>
+      <c r="E81" s="31">
+        <v>0</v>
+      </c>
+      <c r="F81" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="G81" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H81" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="I81" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="J81" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="K81" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="L81" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="M81" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="N81" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="39" t="str">
+        <f>VLOOKUP(A82,Лист2!A:B,1)</f>
+        <v>Приморский край</v>
+      </c>
+      <c r="C82" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="40" t="str">
+        <f>VLOOKUP(A82,Лист2!A:B,2)</f>
+        <v>RU-PRI</v>
+      </c>
+      <c r="E82" s="31">
+        <v>284.39999999999998</v>
+      </c>
+      <c r="F82" s="31">
+        <v>117.3</v>
+      </c>
+      <c r="G82" s="31">
+        <v>121.5</v>
+      </c>
+      <c r="H82" s="31">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="I82" s="31">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="J82" s="31">
+        <v>164.1</v>
+      </c>
+      <c r="K82" s="31">
+        <v>192.7</v>
+      </c>
+      <c r="L82" s="31">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="M82" s="31">
+        <v>230.5</v>
+      </c>
+      <c r="N82" s="31">
+        <v>234.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="39" t="str">
+        <f>VLOOKUP(A83,Лист2!A:B,1)</f>
+        <v>Хабаровский край</v>
+      </c>
+      <c r="C83" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="40" t="str">
+        <f>VLOOKUP(A83,Лист2!A:B,2)</f>
+        <v>RU-KHA</v>
+      </c>
+      <c r="E83" s="31">
+        <v>33.5</v>
+      </c>
+      <c r="F83" s="31">
+        <v>24</v>
+      </c>
+      <c r="G83" s="31">
+        <v>8.9</v>
+      </c>
+      <c r="H83" s="31">
+        <v>17.8</v>
+      </c>
+      <c r="I83" s="31">
+        <v>22.7</v>
+      </c>
+      <c r="J83" s="31">
+        <v>26.6</v>
+      </c>
+      <c r="K83" s="31">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L83" s="31">
+        <v>5.6</v>
+      </c>
+      <c r="M83" s="31">
+        <v>10.4</v>
+      </c>
+      <c r="N83" s="31">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="39" t="str">
+        <f>VLOOKUP(A84,Лист2!A:B,1)</f>
+        <v>Амурская область</v>
+      </c>
+      <c r="C84" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D84" s="40" t="str">
+        <f>VLOOKUP(A84,Лист2!A:B,2)</f>
+        <v>RU-AMU</v>
+      </c>
+      <c r="E84" s="31">
+        <v>905.3</v>
+      </c>
+      <c r="F84" s="31">
+        <v>120.1</v>
+      </c>
+      <c r="G84" s="31">
+        <v>214.2</v>
+      </c>
+      <c r="H84" s="31">
+        <v>233.7</v>
+      </c>
+      <c r="I84" s="31">
+        <v>361.9</v>
+      </c>
+      <c r="J84" s="31">
+        <v>272.8</v>
+      </c>
+      <c r="K84" s="31">
+        <v>337.8</v>
+      </c>
+      <c r="L84" s="31">
+        <v>130.4</v>
+      </c>
+      <c r="M84" s="31">
+        <v>338.2</v>
+      </c>
+      <c r="N84" s="31">
+        <v>271.39999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="39" t="str">
+        <f>VLOOKUP(A85,Лист2!A:B,1)</f>
+        <v>Еврейская автономная область</v>
+      </c>
+      <c r="C85" s="39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="40" t="str">
+        <f>VLOOKUP(A85,Лист2!A:B,2)</f>
+        <v>RU-YEV</v>
+      </c>
+      <c r="E85" s="31">
+        <v>63.9</v>
+      </c>
+      <c r="F85" s="31">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G85" s="31">
+        <v>22.4</v>
+      </c>
+      <c r="H85" s="31">
+        <v>28.4</v>
+      </c>
+      <c r="I85" s="31">
+        <v>29.7</v>
+      </c>
+      <c r="J85" s="31">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K85" s="31">
+        <v>26</v>
+      </c>
+      <c r="L85" s="31">
+        <v>6</v>
+      </c>
+      <c r="M85" s="31">
+        <v>25.8</v>
+      </c>
+      <c r="N85" s="31">
+        <v>20.9</v>
       </c>
     </row>
   </sheetData>
